--- a/ridesharing_sim_qt/results_limited_cap.xlsx
+++ b/ridesharing_sim_qt/results_limited_cap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms119322\Source\Repos\ridesharing_sim_qt\ridesharing_sim_qt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC31DAE-0461-403E-8CA9-51C21F861BA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E4016B-3576-4161-A3DB-D323F5F82EEB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{667B39CD-42C4-4E7C-9ABD-896FAEB1F784}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{667B39CD-42C4-4E7C-9ABD-896FAEB1F784}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>B=1500 | 300x300</t>
   </si>
@@ -105,6 +105,21 @@
   </si>
   <si>
     <t>B = 300 | unlim | 1000x1000</t>
+  </si>
+  <si>
+    <t>Ring N = 100</t>
+  </si>
+  <si>
+    <t>(test)</t>
+  </si>
+  <si>
+    <t>Theoretical Solution</t>
+  </si>
+  <si>
+    <t>measured</t>
+  </si>
+  <si>
+    <t>Minimal Graph, B = 1, capacity = 5</t>
   </si>
 </sst>
 </file>
@@ -245,6 +260,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3857700587280411"/>
+          <c:y val="2.2370210629750368E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -319,7 +342,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle2!$C$4:$C$43</c:f>
+              <c:f>Tabelle2!$K$5:$K$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -448,7 +471,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle2!$D$4:$D$43</c:f>
+              <c:f>Tabelle2!$L$5:$L$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -611,7 +634,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle2!$C$4:$C$43</c:f>
+              <c:f>Tabelle2!$K$5:$K$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -740,7 +763,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle2!$E$4:$E$43</c:f>
+              <c:f>Tabelle2!$M$5:$M$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -1085,7 +1108,2173 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.4832647985846553E-2"/>
+          <c:y val="0.10513201626721168"/>
+          <c:w val="0.91382955612047712"/>
+          <c:h val="0.75774080267174959"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle2!$K$5:$K$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5121700000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5243799999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5366200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5488900000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5612000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5735400000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5859100000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5983099999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6107500000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6232300000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6357299999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6482700000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6608499999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6734600000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6860999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.6987800000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.7114900000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7242300000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7370099999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.7498300000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.7626799999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.7755599999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.7884799999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8014299999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.8144200000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.8274499999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8405100000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.8536000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.8667299999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.8799000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.8930999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.9063299999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.9196099999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.9329200000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.9462599999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.9596400000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.9730600000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.98651</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle2!$L$5:$L$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>5.93811</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9770799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0327999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0767899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1216900000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1866899999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2018000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2882800000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3171400000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3514299999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.4410800000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5272899999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5585300000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.6199000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.8066000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.8265500000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.0368199999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.02562</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2950200000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.4022699999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.5787500000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.9163399999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.3045200000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.5337800000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.7190799999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.9779499999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.9169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.7935</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.524900000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20.613299999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22.347000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30.606999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34.305799999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36.136299999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43.502200000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>52.274799999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>55.391800000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>58.818600000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>70.636799999999994</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>73.531300000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17B5-4C6C-A62B-161B74AE6B37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle2!$K$5:$K$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5121700000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5243799999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5366200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5488900000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5612000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5735400000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5859100000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5983099999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6107500000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6232300000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6357299999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6482700000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6608499999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6734600000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6860999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.6987800000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.7114900000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7242300000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7370099999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.7498300000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.7626799999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.7755599999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.7884799999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8014299999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.8144200000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.8274499999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8405100000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.8536000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.8667299999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.8799000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.8930999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.9063299999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.9196099999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.9329200000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.9462599999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.9596400000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.9730600000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.98651</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle2!$M$5:$M$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1520855443494673</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2063950540347328</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2630648185074893</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3222933827669534</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3843540565177772</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4494486432490756</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.517857161245141</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5898955510468253</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6659844251766245</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7465413039785567</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.8319031682543141</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9227418960566354</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0196882721509652</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.1233895645250236</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.2346823510672165</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.3546461443463267</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.4843574915947499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.6251981981361325</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.7789507582037309</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.9476554786745046</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.1336558975223259</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.3399870183567923</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.570628260211798</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.8302359626328233</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.1252293544563017</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.4637872935381004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.8564984632265382</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.318080874316944</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.869581354393317</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.541015736885935</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.376729560336733</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.446951330201738</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14.871096503296378</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16.858978437686378</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.832750509862205</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24.78124555004969</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>34.668679896065612</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>64.289697546330615</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-17B5-4C6C-A62B-161B74AE6B37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="37"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="279400" dist="508000" dir="5400000" sx="78000" sy="78000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="43137"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="279400" dist="508000" dir="5400000" sx="78000" sy="78000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-17B5-4C6C-A62B-161B74AE6B37}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle2!$K$5:$K$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5121700000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5243799999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5366200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5488900000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5612000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5735400000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5859100000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5983099999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6107500000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6232300000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6357299999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6482700000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6608499999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6734600000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6860999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.6987800000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.7114900000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7242300000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7370099999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.7498300000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.7626799999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.7755599999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.7884799999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8014299999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.8144200000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.8274499999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8405100000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.8536000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.8667299999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.8799000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.8930999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.9063299999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.9196099999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.9329200000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.9462599999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.9596400000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.9730600000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.98651</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle2!$N$5:$N$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8808210760920847</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0184870438585403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1634500578359024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3163305711467279</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4779564266180536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6489845101533618</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8302898788910644</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0228598470213299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.2279825786769489</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.4469628249329904</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6809061507947334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9318596751769848</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2017946004717661</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.4927598891406966</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.8073698470850514</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.1489717010822709</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5209559112335924</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.9276406191754134</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.3745698693866579</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.8681196208578257</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.415639679757271</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.026614432364976</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.713453313161867</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.490733633227569</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.378489232675946</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.40227904230656</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.595218947582929</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.003302732240453</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.692275482479115</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20.755936677768549</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23.332892376052289</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26.642606656880432</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31.058200322801184</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>37.235392617769932</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>46.493412843319391</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>61.922337343905269</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>92.785342175205045</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>185.31571608228316</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-17B5-4C6C-A62B-161B74AE6B37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1563111824"/>
+        <c:axId val="1557334272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1563111824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1557334272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1557334272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1563111824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12316885389326335"/>
+          <c:y val="0.88483741615631384"/>
+          <c:w val="0.50765024339950338"/>
+          <c:h val="4.992538471250868E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Theoretical solution vs. measurements</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle2!$B$4:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53013399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56208499999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59596099999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63187899999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66996199999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71033999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75315200000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.798543</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84667099999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89769900000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95180200000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0091699999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.06999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1344700000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.20285</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2753399999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3522099999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4337</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5201100000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6117300000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.70886</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.81185</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9210499999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0368300000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1595900000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2897500000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4277500000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.5740599999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.7292000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.8936899999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0680900000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.4490500000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.6569199999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.8773200000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.1109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.3587699999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.6214700000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle2!$C$4:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1.34714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4370099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.54436</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.65374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7538400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.89777</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0386799999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1232199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.28043</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4441600000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6427499999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7887400000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.97112</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.14629</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3312200000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.55071</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.7422499999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0096100000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.2727199999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.5756300000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8175800000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.1352700000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4437300000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.7807899999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.1670400000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5495799999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.8889899999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.4603099999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.9209800000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.4104600000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.0818999999999992</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.5194200000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.2714</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.2864</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.090199999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.547800000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15.1808</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16.7438</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22.836300000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>48.436999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E9F4-4424-9A8A-AA17600098D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle2!$B$4:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53013399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56208499999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59596099999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63187899999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66996199999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71033999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75315200000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.798543</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84667099999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89769900000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95180200000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0091699999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.06999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1344700000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.20285</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2753399999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3522099999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4337</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5201100000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6117300000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.70886</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.81185</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9210499999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0368300000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1595900000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2897500000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4277500000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.5740599999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.7292000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.8936899999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0680900000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.4490500000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.6569199999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.8773200000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.1109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.3587699999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.6214700000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle2!$D$4:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1.50003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5904499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.68631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7879700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.89575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.01004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.13124</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2597499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3960400000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5405799999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.69387</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8564699999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0289600000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2119499999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4061300000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6122299999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8310300000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0633999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3102799999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.5727200000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8518699999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.1490600000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4657799999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.8037400000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.1649799999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5518900000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.9674399999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.4152699999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.9001099999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.4281799999999993</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.0080299999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.6518599999999992</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.3781</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.215999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.215999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.474299999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15.1999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17.956900000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23.982600000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>61.419800000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E9F4-4424-9A8A-AA17600098D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1550684608"/>
+        <c:axId val="1557334688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1550684608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1557334688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1557334688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1550684608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1641,20 +3830,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495083</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676951</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>150678</xdr:rowOff>
+      <xdr:rowOff>95713</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>738094</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>157962</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>62473</xdr:rowOff>
+      <xdr:rowOff>5748</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1676,6 +4897,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>562302</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>119133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>378260</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57533</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA349C74-3F62-4019-8929-1F8CEAF59618}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>72349</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>75603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>665651</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>163973</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94979BE0-CE95-4B14-80B0-8FD45E7AB084}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1983,8 +5276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EAA692-DDF7-4B47-9F87-3FE1912675E4}">
   <dimension ref="A1:K256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="E213" sqref="E213"/>
+    <sheetView topLeftCell="B205" zoomScale="41" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="J218" sqref="J218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1993,8 +5286,8 @@
     <col min="2" max="2" width="21.453125" customWidth="1"/>
     <col min="3" max="4" width="28.36328125" customWidth="1"/>
     <col min="5" max="7" width="20.90625" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" customWidth="1"/>
-    <col min="9" max="11" width="20.90625" customWidth="1"/>
+    <col min="8" max="9" width="28.08984375" customWidth="1"/>
+    <col min="10" max="11" width="20.90625" customWidth="1"/>
     <col min="12" max="16" width="20.36328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4143,7 +7436,7 @@
         <v>3.5542699999999998</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B161">
         <v>2.2887599999999999</v>
       </c>
@@ -4154,7 +7447,7 @@
         <v>3.86795</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B162">
         <v>2.4214000000000002</v>
       </c>
@@ -4165,7 +7458,7 @@
         <v>4.2576700000000001</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B163">
         <v>2.5617399999999999</v>
       </c>
@@ -4176,7 +7469,7 @@
         <v>4.6402099999999997</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B164">
         <v>2.71021</v>
       </c>
@@ -4187,7 +7480,7 @@
         <v>5.0789799999999996</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B165">
         <v>2.8672800000000001</v>
       </c>
@@ -4198,7 +7491,7 @@
         <v>5.5911799999999996</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B166">
         <v>3.0334599999999998</v>
       </c>
@@ -4209,7 +7502,7 @@
         <v>6.0855199999999998</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B167">
         <v>3.2092700000000001</v>
       </c>
@@ -4220,7 +7513,7 @@
         <v>6.72539</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B168">
         <v>3.39527</v>
       </c>
@@ -4228,7 +7521,7 @@
         <v>7.3261799999999999</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B169">
         <v>3.5920399999999999</v>
       </c>
@@ -4236,7 +7529,7 @@
         <v>7.9892300000000001</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B170">
         <v>3.8002199999999999</v>
       </c>
@@ -4244,7 +7537,7 @@
         <v>8.7604199999999999</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B171">
         <v>4.0204700000000004</v>
       </c>
@@ -4252,7 +7545,7 @@
         <v>9.5802700000000005</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B172">
         <v>4.2534799999999997</v>
       </c>
@@ -4260,7 +7553,7 @@
         <v>10.478899999999999</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B173">
         <v>4.5</v>
       </c>
@@ -4268,20 +7561,29 @@
         <v>11.418900000000001</v>
       </c>
     </row>
-    <row r="176" spans="2:4" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="2:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B176" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G176" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C177" t="s">
         <v>22</v>
       </c>
       <c r="D177" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="H177" t="s">
+        <v>22</v>
+      </c>
+      <c r="I177" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B178">
         <v>0.5</v>
       </c>
@@ -4291,8 +7593,14 @@
       <c r="D178">
         <v>0.503413</v>
       </c>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G178">
+        <v>0.5</v>
+      </c>
+      <c r="H178">
+        <v>0.50651999999999997</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B179">
         <v>0.52985400000000005</v>
       </c>
@@ -4302,8 +7610,14 @@
       <c r="D179">
         <v>0.53414300000000003</v>
       </c>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G179">
+        <v>0.52985400000000005</v>
+      </c>
+      <c r="H179">
+        <v>0.53578199999999998</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B180">
         <v>0.56149099999999996</v>
       </c>
@@ -4313,8 +7627,14 @@
       <c r="D180">
         <v>0.56490200000000002</v>
       </c>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G180">
+        <v>0.56149099999999996</v>
+      </c>
+      <c r="H180">
+        <v>0.56939600000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B181">
         <v>0.59501700000000002</v>
       </c>
@@ -4324,8 +7644,14 @@
       <c r="D181">
         <v>0.60140300000000002</v>
       </c>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G181">
+        <v>0.59501700000000002</v>
+      </c>
+      <c r="H181">
+        <v>0.60156699999999996</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B182">
         <v>0.63054500000000002</v>
       </c>
@@ -4335,8 +7661,14 @@
       <c r="D182">
         <v>0.63159500000000002</v>
       </c>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G182">
+        <v>0.63054500000000002</v>
+      </c>
+      <c r="H182">
+        <v>0.63867499999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B183">
         <v>0.66819300000000004</v>
       </c>
@@ -4346,8 +7678,14 @@
       <c r="D183">
         <v>0.671705</v>
       </c>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G183">
+        <v>0.66819300000000004</v>
+      </c>
+      <c r="H183">
+        <v>0.67573099999999997</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B184">
         <v>0.70809</v>
       </c>
@@ -4357,8 +7695,14 @@
       <c r="D184">
         <v>0.71426599999999996</v>
       </c>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G184">
+        <v>0.70809</v>
+      </c>
+      <c r="H184">
+        <v>0.71836800000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B185">
         <v>0.75036899999999995</v>
       </c>
@@ -4368,8 +7712,14 @@
       <c r="D185">
         <v>0.75462700000000005</v>
       </c>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G185">
+        <v>0.75036899999999995</v>
+      </c>
+      <c r="H185">
+        <v>0.76226899999999997</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B186">
         <v>0.79517300000000002</v>
       </c>
@@ -4379,8 +7729,14 @@
       <c r="D186">
         <v>0.80101199999999995</v>
       </c>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G186">
+        <v>0.79517300000000002</v>
+      </c>
+      <c r="H186">
+        <v>0.80810499999999996</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B187">
         <v>0.84265100000000004</v>
       </c>
@@ -4390,8 +7746,14 @@
       <c r="D187">
         <v>0.84668299999999996</v>
       </c>
-    </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G187">
+        <v>0.84265100000000004</v>
+      </c>
+      <c r="H187">
+        <v>0.85514500000000004</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B188">
         <v>0.89296500000000001</v>
       </c>
@@ -4401,8 +7763,14 @@
       <c r="D188">
         <v>0.90217599999999998</v>
       </c>
-    </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G188">
+        <v>0.89296500000000001</v>
+      </c>
+      <c r="H188">
+        <v>0.90474699999999997</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B189">
         <v>0.94628299999999999</v>
       </c>
@@ -4412,8 +7780,14 @@
       <c r="D189">
         <v>0.95337700000000003</v>
       </c>
-    </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G189">
+        <v>0.94628299999999999</v>
+      </c>
+      <c r="H189">
+        <v>0.96119600000000005</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B190">
         <v>1.00278</v>
       </c>
@@ -4423,8 +7797,14 @@
       <c r="D190">
         <v>1.01501</v>
       </c>
-    </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G190">
+        <v>1.00278</v>
+      </c>
+      <c r="H190">
+        <v>1.0213399999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B191">
         <v>1.0626599999999999</v>
       </c>
@@ -4434,8 +7814,14 @@
       <c r="D191">
         <v>1.0716600000000001</v>
       </c>
-    </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G191">
+        <v>1.0626599999999999</v>
+      </c>
+      <c r="H191">
+        <v>1.0777399999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B192">
         <v>1.1261099999999999</v>
       </c>
@@ -4445,8 +7831,14 @@
       <c r="D192">
         <v>1.1393599999999999</v>
       </c>
-    </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G192">
+        <v>1.1261099999999999</v>
+      </c>
+      <c r="H192">
+        <v>1.1459699999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B193">
         <v>1.1933499999999999</v>
       </c>
@@ -4456,8 +7848,14 @@
       <c r="D193">
         <v>1.2071400000000001</v>
       </c>
-    </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G193">
+        <v>1.1933499999999999</v>
+      </c>
+      <c r="H193">
+        <v>1.2063999999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B194">
         <v>1.2645999999999999</v>
       </c>
@@ -4467,8 +7865,14 @@
       <c r="D194">
         <v>1.2773399999999999</v>
       </c>
-    </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G194">
+        <v>1.2645999999999999</v>
+      </c>
+      <c r="H194">
+        <v>1.28562</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B195">
         <v>1.3401099999999999</v>
       </c>
@@ -4478,8 +7882,14 @@
       <c r="D195">
         <v>1.3563499999999999</v>
       </c>
-    </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G195">
+        <v>1.3401099999999999</v>
+      </c>
+      <c r="H195">
+        <v>1.3596200000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B196">
         <v>1.42012</v>
       </c>
@@ -4489,8 +7899,14 @@
       <c r="D196">
         <v>1.4373400000000001</v>
       </c>
-    </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G196">
+        <v>1.42012</v>
+      </c>
+      <c r="H196">
+        <v>1.44441</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B197">
         <v>1.50492</v>
       </c>
@@ -4500,8 +7916,14 @@
       <c r="D197">
         <v>1.52597</v>
       </c>
-    </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G197">
+        <v>1.50492</v>
+      </c>
+      <c r="H197">
+        <v>1.52705</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B198">
         <v>1.59477</v>
       </c>
@@ -4511,8 +7933,14 @@
       <c r="D198">
         <v>1.6204400000000001</v>
       </c>
-    </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G198">
+        <v>1.59477</v>
+      </c>
+      <c r="H198">
+        <v>1.61934</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B199">
         <v>1.6899900000000001</v>
       </c>
@@ -4522,8 +7950,14 @@
       <c r="D199">
         <v>1.7131000000000001</v>
       </c>
-    </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G199">
+        <v>1.6899900000000001</v>
+      </c>
+      <c r="H199">
+        <v>1.72228</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B200">
         <v>1.7908999999999999</v>
       </c>
@@ -4533,8 +7967,14 @@
       <c r="D200">
         <v>1.8249899999999999</v>
       </c>
-    </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G200">
+        <v>1.7908999999999999</v>
+      </c>
+      <c r="H200">
+        <v>1.8261499999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B201">
         <v>1.8978299999999999</v>
       </c>
@@ -4544,8 +7984,14 @@
       <c r="D201">
         <v>1.93285</v>
       </c>
-    </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G201">
+        <v>1.8978299999999999</v>
+      </c>
+      <c r="H201">
+        <v>1.9367399999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B202">
         <v>2.0111500000000002</v>
       </c>
@@ -4555,8 +8001,14 @@
       <c r="D202">
         <v>2.0499700000000001</v>
       </c>
-    </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G202">
+        <v>2.0111500000000002</v>
+      </c>
+      <c r="H202">
+        <v>2.0504099999999998</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B203">
         <v>2.13123</v>
       </c>
@@ -4566,8 +8018,14 @@
       <c r="D203">
         <v>2.16818</v>
       </c>
-    </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G203">
+        <v>2.13123</v>
+      </c>
+      <c r="H203">
+        <v>2.1791100000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B204">
         <v>2.2584900000000001</v>
       </c>
@@ -4577,8 +8035,14 @@
       <c r="D204">
         <v>2.2909000000000002</v>
       </c>
-    </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G204">
+        <v>2.2584900000000001</v>
+      </c>
+      <c r="H204">
+        <v>2.30593</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B205">
         <v>2.3933399999999998</v>
       </c>
@@ -4588,8 +8052,14 @@
       <c r="D205">
         <v>2.4329499999999999</v>
       </c>
-    </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G205">
+        <v>2.3933399999999998</v>
+      </c>
+      <c r="H205">
+        <v>2.4540299999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B206">
         <v>2.5362399999999998</v>
       </c>
@@ -4599,8 +8069,14 @@
       <c r="D206">
         <v>2.5866199999999999</v>
       </c>
-    </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G206">
+        <v>2.5362399999999998</v>
+      </c>
+      <c r="H206">
+        <v>2.59626</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B207">
         <v>2.6876799999999998</v>
       </c>
@@ -4610,8 +8086,14 @@
       <c r="D207">
         <v>2.7330999999999999</v>
       </c>
-    </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G207">
+        <v>2.6876799999999998</v>
+      </c>
+      <c r="H207">
+        <v>2.7669000000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B208">
         <v>2.84815</v>
       </c>
@@ -4621,8 +8103,14 @@
       <c r="D208">
         <v>2.8985099999999999</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G208">
+        <v>2.84815</v>
+      </c>
+      <c r="H208">
+        <v>2.92442</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B209">
         <v>3.0182099999999998</v>
       </c>
@@ -4632,8 +8120,14 @@
       <c r="D209">
         <v>3.0546500000000001</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G209">
+        <v>3.0182099999999998</v>
+      </c>
+      <c r="H209">
+        <v>3.0942500000000002</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B210">
         <v>3.19842</v>
       </c>
@@ -4643,8 +8137,14 @@
       <c r="D210">
         <v>3.2525499999999998</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G210">
+        <v>3.19842</v>
+      </c>
+      <c r="H210">
+        <v>3.2971699999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B211">
         <v>3.3894000000000002</v>
       </c>
@@ -4654,8 +8154,14 @@
       <c r="D211">
         <v>3.4521099999999998</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G211">
+        <v>3.3894000000000002</v>
+      </c>
+      <c r="H211">
+        <v>3.5123199999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B212">
         <v>3.5917699999999999</v>
       </c>
@@ -4665,8 +8171,14 @@
       <c r="D212">
         <v>3.6580699999999999</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G212">
+        <v>3.5917699999999999</v>
+      </c>
+      <c r="H212">
+        <v>3.7341799999999998</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B213">
         <v>3.8062299999999998</v>
       </c>
@@ -4676,8 +8188,14 @@
       <c r="D213">
         <v>3.8738800000000002</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G213">
+        <v>3.8062299999999998</v>
+      </c>
+      <c r="H213">
+        <v>3.98881</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B214">
         <v>4.0335000000000001</v>
       </c>
@@ -4687,8 +8205,14 @@
       <c r="D214">
         <v>4.0887500000000001</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G214">
+        <v>4.0335000000000001</v>
+      </c>
+      <c r="H214">
+        <v>4.2576400000000003</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B215">
         <v>4.27433</v>
       </c>
@@ -4698,8 +8222,14 @@
       <c r="D215">
         <v>4.3587300000000004</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G215">
+        <v>4.27433</v>
+      </c>
+      <c r="H215">
+        <v>4.5773799999999998</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B216">
         <v>4.5295500000000004</v>
       </c>
@@ -4709,8 +8239,14 @@
       <c r="D216">
         <v>4.6061500000000004</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G216">
+        <v>4.5295500000000004</v>
+      </c>
+      <c r="H216">
+        <v>5.0487700000000002</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B217">
         <v>4.8</v>
       </c>
@@ -4720,8 +8256,17 @@
       <c r="D217">
         <v>4.8664399999999999</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G217">
+        <v>4.8</v>
+      </c>
+      <c r="H217">
+        <v>10.1724</v>
+      </c>
+      <c r="I217">
+        <v>4.8604200000000004</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="3"/>
       <c r="B218">
         <v>4.8050300000000004</v>
@@ -4732,8 +8277,17 @@
       <c r="D218">
         <v>4.8762499999999998</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G218">
+        <v>4.8050300000000004</v>
+      </c>
+      <c r="H218">
+        <v>9.5900700000000008</v>
+      </c>
+      <c r="I218">
+        <v>4.9060199999999998</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B219">
         <v>4.81006</v>
       </c>
@@ -4743,8 +8297,17 @@
       <c r="D219">
         <v>4.8730399999999996</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G219">
+        <v>4.81006</v>
+      </c>
+      <c r="H219">
+        <v>11.605</v>
+      </c>
+      <c r="I219">
+        <v>4.89445</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B220">
         <v>4.8151000000000002</v>
       </c>
@@ -4754,8 +8317,17 @@
       <c r="D220">
         <v>4.8902599999999996</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G220">
+        <v>4.8151000000000002</v>
+      </c>
+      <c r="H220">
+        <v>10.7593</v>
+      </c>
+      <c r="I220">
+        <v>4.8779399999999997</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B221">
         <v>4.8201400000000003</v>
       </c>
@@ -4765,8 +8337,17 @@
       <c r="D221">
         <v>4.8989399999999996</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G221">
+        <v>4.8201400000000003</v>
+      </c>
+      <c r="H221">
+        <v>13.185700000000001</v>
+      </c>
+      <c r="I221">
+        <v>4.9031799999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B222">
         <v>4.8251900000000001</v>
       </c>
@@ -4776,8 +8357,17 @@
       <c r="D222">
         <v>4.90768</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G222">
+        <v>4.8251900000000001</v>
+      </c>
+      <c r="H222">
+        <v>11.067299999999999</v>
+      </c>
+      <c r="I222">
+        <v>4.9268299999999998</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B223">
         <v>4.8302399999999999</v>
       </c>
@@ -4787,8 +8377,17 @@
       <c r="D223">
         <v>4.8955900000000003</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G223">
+        <v>4.8302399999999999</v>
+      </c>
+      <c r="H223">
+        <v>12.0677</v>
+      </c>
+      <c r="I223">
+        <v>4.9209100000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B224">
         <v>4.8353000000000002</v>
       </c>
@@ -4798,8 +8397,17 @@
       <c r="D224">
         <v>4.9129300000000002</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G224">
+        <v>4.8353000000000002</v>
+      </c>
+      <c r="H224">
+        <v>17.6264</v>
+      </c>
+      <c r="I224">
+        <v>4.9052199999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B225">
         <v>4.8403600000000004</v>
       </c>
@@ -4809,8 +8417,17 @@
       <c r="D225">
         <v>4.9271000000000003</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G225">
+        <v>4.8403600000000004</v>
+      </c>
+      <c r="H225">
+        <v>16.677900000000001</v>
+      </c>
+      <c r="I225">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B226">
         <v>4.8454300000000003</v>
       </c>
@@ -4820,8 +8437,17 @@
       <c r="D226">
         <v>4.9344999999999999</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G226">
+        <v>4.8454300000000003</v>
+      </c>
+      <c r="H226">
+        <v>17.554200000000002</v>
+      </c>
+      <c r="I226">
+        <v>4.9361199999999998</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B227">
         <v>4.8505099999999999</v>
       </c>
@@ -4831,8 +8457,17 @@
       <c r="D227">
         <v>4.93581</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G227">
+        <v>4.8505099999999999</v>
+      </c>
+      <c r="H227">
+        <v>19.7347</v>
+      </c>
+      <c r="I227">
+        <v>4.9425999999999997</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B228">
         <v>4.8555900000000003</v>
       </c>
@@ -4842,8 +8477,17 @@
       <c r="D228">
         <v>4.9541399999999998</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G228">
+        <v>4.8555900000000003</v>
+      </c>
+      <c r="H228">
+        <v>23.744299999999999</v>
+      </c>
+      <c r="I228">
+        <v>4.9372299999999996</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B229">
         <v>4.8606699999999998</v>
       </c>
@@ -4853,8 +8497,17 @@
       <c r="D229">
         <v>4.94801</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G229">
+        <v>4.8606699999999998</v>
+      </c>
+      <c r="H229">
+        <v>19.986699999999999</v>
+      </c>
+      <c r="I229">
+        <v>4.9451000000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B230">
         <v>4.8657599999999999</v>
       </c>
@@ -4864,8 +8517,17 @@
       <c r="D230">
         <v>4.9555300000000004</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G230">
+        <v>4.8657599999999999</v>
+      </c>
+      <c r="H230">
+        <v>22.611899999999999</v>
+      </c>
+      <c r="I230">
+        <v>4.9561299999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B231">
         <v>4.8708600000000004</v>
       </c>
@@ -4875,8 +8537,17 @@
       <c r="D231">
         <v>4.9615299999999998</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G231">
+        <v>4.8708600000000004</v>
+      </c>
+      <c r="H231">
+        <v>26.597200000000001</v>
+      </c>
+      <c r="I231">
+        <v>4.9436200000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B232">
         <v>4.8759600000000001</v>
       </c>
@@ -4886,8 +8557,17 @@
       <c r="D232">
         <v>4.9447000000000001</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G232">
+        <v>4.8759600000000001</v>
+      </c>
+      <c r="H232">
+        <v>24.948799999999999</v>
+      </c>
+      <c r="I232">
+        <v>4.9400500000000003</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B233">
         <v>4.8810599999999997</v>
       </c>
@@ -4897,8 +8577,17 @@
       <c r="D233">
         <v>4.9627800000000004</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G233">
+        <v>4.8810599999999997</v>
+      </c>
+      <c r="H233">
+        <v>23.924199999999999</v>
+      </c>
+      <c r="I233">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B234">
         <v>4.8861800000000004</v>
       </c>
@@ -4908,8 +8597,14 @@
       <c r="D234">
         <v>4.9639699999999998</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G234">
+        <v>4.8861800000000004</v>
+      </c>
+      <c r="I234">
+        <v>4.9695299999999998</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B235">
         <v>4.8912899999999997</v>
       </c>
@@ -4919,8 +8614,14 @@
       <c r="D235">
         <v>4.9858700000000002</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G235">
+        <v>4.8912899999999997</v>
+      </c>
+      <c r="I235">
+        <v>4.98278</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B236">
         <v>4.89642</v>
       </c>
@@ -4930,8 +8631,14 @@
       <c r="D236">
         <v>4.9820700000000002</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G236">
+        <v>4.89642</v>
+      </c>
+      <c r="I236">
+        <v>4.9881399999999996</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B237">
         <v>4.9015399999999998</v>
       </c>
@@ -4941,8 +8648,14 @@
       <c r="D237">
         <v>4.9752099999999997</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G237">
+        <v>4.9015399999999998</v>
+      </c>
+      <c r="I237">
+        <v>4.9823599999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" s="5" t="s">
         <v>21</v>
       </c>
@@ -4955,8 +8668,14 @@
       <c r="D238">
         <v>4.9954299999999998</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G238">
+        <v>4.9066799999999997</v>
+      </c>
+      <c r="I238">
+        <v>5.0048500000000002</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B239">
         <v>4.9118199999999996</v>
       </c>
@@ -4966,8 +8685,14 @@
       <c r="D239">
         <v>4.9886499999999998</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G239">
+        <v>4.9118199999999996</v>
+      </c>
+      <c r="I239">
+        <v>4.9859499999999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B240">
         <v>4.9169600000000004</v>
       </c>
@@ -4977,8 +8702,14 @@
       <c r="D240">
         <v>5.0150499999999996</v>
       </c>
-    </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G240">
+        <v>4.9169600000000004</v>
+      </c>
+      <c r="I240">
+        <v>5.0123300000000004</v>
+      </c>
+    </row>
+    <row r="241" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B241">
         <v>4.92211</v>
       </c>
@@ -4988,8 +8719,14 @@
       <c r="D241">
         <v>4.9995500000000002</v>
       </c>
-    </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G241">
+        <v>4.92211</v>
+      </c>
+      <c r="I241">
+        <v>5.0228299999999999</v>
+      </c>
+    </row>
+    <row r="242" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B242">
         <v>4.9272600000000004</v>
       </c>
@@ -4999,117 +8736,207 @@
       <c r="D242">
         <v>5.0164099999999996</v>
       </c>
-    </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G242">
+        <v>4.9272600000000004</v>
+      </c>
+      <c r="I242">
+        <v>5.00075</v>
+      </c>
+    </row>
+    <row r="243" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B243">
         <v>4.9324199999999996</v>
       </c>
       <c r="D243">
         <v>4.9942399999999996</v>
       </c>
-    </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G243">
+        <v>4.9324199999999996</v>
+      </c>
+      <c r="I243">
+        <v>5.0036899999999997</v>
+      </c>
+    </row>
+    <row r="244" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B244">
         <v>4.9375900000000001</v>
       </c>
       <c r="D244">
         <v>5.0358999999999998</v>
       </c>
-    </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G244">
+        <v>4.9375900000000001</v>
+      </c>
+      <c r="I244">
+        <v>5.0226199999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B245">
         <v>4.9427599999999998</v>
       </c>
       <c r="D245">
         <v>5.0084400000000002</v>
       </c>
-    </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G245">
+        <v>4.9427599999999998</v>
+      </c>
+      <c r="I245">
+        <v>5.0303699999999996</v>
+      </c>
+    </row>
+    <row r="246" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B246">
         <v>4.94794</v>
       </c>
       <c r="D246">
         <v>5.0186700000000002</v>
       </c>
-    </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G246">
+        <v>4.94794</v>
+      </c>
+      <c r="I246">
+        <v>5.0335999999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B247">
         <v>4.9531200000000002</v>
       </c>
       <c r="D247">
         <v>5.0261399999999998</v>
       </c>
-    </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G247">
+        <v>4.9531200000000002</v>
+      </c>
+      <c r="I247">
+        <v>5.03268</v>
+      </c>
+    </row>
+    <row r="248" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B248">
         <v>4.95831</v>
       </c>
       <c r="D248">
         <v>5.0338099999999999</v>
       </c>
-    </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G248">
+        <v>4.95831</v>
+      </c>
+      <c r="I248">
+        <v>5.0491700000000002</v>
+      </c>
+    </row>
+    <row r="249" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B249">
         <v>4.9634999999999998</v>
       </c>
       <c r="D249">
         <v>5.0340699999999998</v>
       </c>
-    </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G249">
+        <v>4.9634999999999998</v>
+      </c>
+      <c r="I249">
+        <v>5.0552900000000003</v>
+      </c>
+    </row>
+    <row r="250" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B250">
         <v>4.9687000000000001</v>
       </c>
       <c r="D250">
         <v>5.0420800000000003</v>
       </c>
-    </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G250">
+        <v>4.9687000000000001</v>
+      </c>
+      <c r="I250">
+        <v>5.0460799999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B251">
         <v>4.9739000000000004</v>
       </c>
       <c r="D251">
         <v>5.0556099999999997</v>
       </c>
-    </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G251">
+        <v>4.9739000000000004</v>
+      </c>
+      <c r="I251">
+        <v>5.0619699999999996</v>
+      </c>
+    </row>
+    <row r="252" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B252">
         <v>4.9791100000000004</v>
       </c>
       <c r="D252">
         <v>5.0786100000000003</v>
       </c>
-    </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G252">
+        <v>4.9791100000000004</v>
+      </c>
+      <c r="I252">
+        <v>5.0604800000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B253">
         <v>4.9843200000000003</v>
       </c>
       <c r="D253">
         <v>5.06738</v>
       </c>
-    </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G253">
+        <v>4.9843200000000003</v>
+      </c>
+      <c r="I253">
+        <v>5.0644600000000004</v>
+      </c>
+    </row>
+    <row r="254" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B254">
         <v>4.9895399999999999</v>
       </c>
       <c r="D254">
         <v>5.0817800000000002</v>
       </c>
-    </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G254">
+        <v>4.9895399999999999</v>
+      </c>
+      <c r="I254">
+        <v>5.0724499999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B255">
         <v>4.9947699999999999</v>
       </c>
       <c r="D255">
         <v>5.0766900000000001</v>
       </c>
-    </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="G255">
+        <v>4.9947699999999999</v>
+      </c>
+      <c r="I255">
+        <v>5.0730700000000004</v>
+      </c>
+    </row>
+    <row r="256" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B256">
         <v>5</v>
       </c>
       <c r="D256">
         <v>5.0852899999999996</v>
+      </c>
+      <c r="G256">
+        <v>5</v>
+      </c>
+      <c r="I256">
+        <v>5.0882300000000003</v>
       </c>
     </row>
   </sheetData>
@@ -5120,510 +8947,1538 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB681F8D-3760-4112-9442-C552B0617143}">
-  <dimension ref="B2:E43"/>
+  <dimension ref="A2:N92"/>
   <sheetViews>
-    <sheetView zoomScale="59" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="27.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" customWidth="1"/>
     <col min="5" max="5" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D3" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>1.34714</v>
+      </c>
+      <c r="D4">
+        <v>1.50003</v>
+      </c>
+      <c r="L4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="M4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>0.53013399999999999</v>
+      </c>
+      <c r="C5">
+        <v>1.4370099999999999</v>
+      </c>
+      <c r="D5">
+        <v>1.5904499999999999</v>
+      </c>
+      <c r="K5">
         <v>4.5</v>
       </c>
-      <c r="D4">
+      <c r="L5">
         <v>5.93811</v>
       </c>
-      <c r="E4">
-        <f>C4 + 0.8 / (5 - C4)</f>
+      <c r="M5">
+        <f>K5 + 0.8 / (5 - K5)</f>
         <v>6.1</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C5">
+      <c r="N5">
+        <f xml:space="preserve"> 5 / (2 *(5 - K5)) - 1/2 * (5 - K5)</f>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>0.56208499999999995</v>
+      </c>
+      <c r="C6">
+        <v>1.54436</v>
+      </c>
+      <c r="D6">
+        <v>1.68631</v>
+      </c>
+      <c r="K6">
         <v>4.5121700000000002</v>
       </c>
-      <c r="D5">
+      <c r="L6">
         <v>5.9770799999999999</v>
       </c>
-      <c r="E5">
-        <f>C5 + 0.8 / (5 - C5)</f>
+      <c r="M6">
+        <f>K6 + 0.8 / (5 - K6)</f>
         <v>6.1520855443494673</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C6">
+      <c r="N6">
+        <f xml:space="preserve"> 5 / (2 *(5 - K6)) - 1/2 * (5 - K6)</f>
+        <v>4.8808210760920847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>0.59596099999999996</v>
+      </c>
+      <c r="C7">
+        <v>1.65374</v>
+      </c>
+      <c r="D7">
+        <v>1.7879700000000001</v>
+      </c>
+      <c r="K7">
         <v>4.5243799999999998</v>
       </c>
-      <c r="D6">
+      <c r="L7">
         <v>6.0327999999999999</v>
       </c>
-      <c r="E6">
-        <f>C6 + 0.8 / (5 - C6)</f>
+      <c r="M7">
+        <f>K7 + 0.8 / (5 - K7)</f>
         <v>6.2063950540347328</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C7">
+      <c r="N7">
+        <f xml:space="preserve"> 5 / (2 *(5 - K7)) - 1/2 * (5 - K7)</f>
+        <v>5.0184870438585403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>0.63187899999999997</v>
+      </c>
+      <c r="C8">
+        <v>1.7538400000000001</v>
+      </c>
+      <c r="D8">
+        <v>1.89575</v>
+      </c>
+      <c r="K8">
         <v>4.5366200000000001</v>
       </c>
-      <c r="D7">
+      <c r="L8">
         <v>6.0767899999999999</v>
       </c>
-      <c r="E7">
-        <f>C7 + 0.8 / (5 - C7)</f>
+      <c r="M8">
+        <f>K8 + 0.8 / (5 - K8)</f>
         <v>6.2630648185074893</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C8">
+      <c r="N8">
+        <f xml:space="preserve"> 5 / (2 *(5 - K8)) - 1/2 * (5 - K8)</f>
+        <v>5.1634500578359024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>0.66996199999999995</v>
+      </c>
+      <c r="C9">
+        <v>1.89777</v>
+      </c>
+      <c r="D9">
+        <v>2.01004</v>
+      </c>
+      <c r="K9">
         <v>4.5488900000000001</v>
       </c>
-      <c r="D8">
+      <c r="L9">
         <v>6.1216900000000001</v>
       </c>
-      <c r="E8">
-        <f>C8 + 0.8 / (5 - C8)</f>
+      <c r="M9">
+        <f>K9 + 0.8 / (5 - K9)</f>
         <v>6.3222933827669534</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C9">
+      <c r="N9">
+        <f xml:space="preserve"> 5 / (2 *(5 - K9)) - 1/2 * (5 - K9)</f>
+        <v>5.3163305711467279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>0.71033999999999997</v>
+      </c>
+      <c r="C10">
+        <v>2.0386799999999998</v>
+      </c>
+      <c r="D10">
+        <v>2.13124</v>
+      </c>
+      <c r="K10">
         <v>4.5612000000000004</v>
       </c>
-      <c r="D9">
+      <c r="L10">
         <v>6.1866899999999996</v>
       </c>
-      <c r="E9">
-        <f>C9 + 0.8 / (5 - C9)</f>
+      <c r="M10">
+        <f>K10 + 0.8 / (5 - K10)</f>
         <v>6.3843540565177772</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C10">
+      <c r="N10">
+        <f xml:space="preserve"> 5 / (2 *(5 - K10)) - 1/2 * (5 - K10)</f>
+        <v>5.4779564266180536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>0.75315200000000004</v>
+      </c>
+      <c r="C11">
+        <v>2.1232199999999999</v>
+      </c>
+      <c r="D11">
+        <v>2.2597499999999999</v>
+      </c>
+      <c r="K11">
         <v>4.5735400000000004</v>
       </c>
-      <c r="D10">
+      <c r="L11">
         <v>6.2018000000000004</v>
       </c>
-      <c r="E10">
-        <f>C10 + 0.8 / (5 - C10)</f>
+      <c r="M11">
+        <f>K11 + 0.8 / (5 - K11)</f>
         <v>6.4494486432490756</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C11">
+      <c r="N11">
+        <f xml:space="preserve"> 5 / (2 *(5 - K11)) - 1/2 * (5 - K11)</f>
+        <v>5.6489845101533618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>0.798543</v>
+      </c>
+      <c r="C12">
+        <v>2.28043</v>
+      </c>
+      <c r="D12">
+        <v>2.3960400000000002</v>
+      </c>
+      <c r="K12">
         <v>4.5859100000000002</v>
       </c>
-      <c r="D11">
+      <c r="L12">
         <v>6.2882800000000003</v>
       </c>
-      <c r="E11">
-        <f>C11 + 0.8 / (5 - C11)</f>
+      <c r="M12">
+        <f>K12 + 0.8 / (5 - K12)</f>
         <v>6.517857161245141</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C12">
+      <c r="N12">
+        <f xml:space="preserve"> 5 / (2 *(5 - K12)) - 1/2 * (5 - K12)</f>
+        <v>5.8302898788910644</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>0.84667099999999995</v>
+      </c>
+      <c r="C13">
+        <v>2.4441600000000001</v>
+      </c>
+      <c r="D13">
+        <v>2.5405799999999998</v>
+      </c>
+      <c r="K13">
         <v>4.5983099999999997</v>
       </c>
-      <c r="D12">
+      <c r="L13">
         <v>6.3171400000000002</v>
       </c>
-      <c r="E12">
-        <f>C12 + 0.8 / (5 - C12)</f>
+      <c r="M13">
+        <f>K13 + 0.8 / (5 - K13)</f>
         <v>6.5898955510468253</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C13">
+      <c r="N13">
+        <f xml:space="preserve"> 5 / (2 *(5 - K13)) - 1/2 * (5 - K13)</f>
+        <v>6.0228598470213299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>0.89769900000000002</v>
+      </c>
+      <c r="C14">
+        <v>2.6427499999999999</v>
+      </c>
+      <c r="D14">
+        <v>2.69387</v>
+      </c>
+      <c r="K14">
         <v>4.6107500000000003</v>
       </c>
-      <c r="D13">
+      <c r="L14">
         <v>6.3514299999999997</v>
       </c>
-      <c r="E13">
-        <f>C13 + 0.8 / (5 - C13)</f>
+      <c r="M14">
+        <f>K14 + 0.8 / (5 - K14)</f>
         <v>6.6659844251766245</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C14">
+      <c r="N14">
+        <f xml:space="preserve"> 5 / (2 *(5 - K14)) - 1/2 * (5 - K14)</f>
+        <v>6.2279825786769489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>0.95180200000000004</v>
+      </c>
+      <c r="C15">
+        <v>2.7887400000000002</v>
+      </c>
+      <c r="D15">
+        <v>2.8564699999999998</v>
+      </c>
+      <c r="K15">
         <v>4.6232300000000004</v>
       </c>
-      <c r="D14">
+      <c r="L15">
         <v>6.4410800000000004</v>
       </c>
-      <c r="E14">
-        <f>C14 + 0.8 / (5 - C14)</f>
+      <c r="M15">
+        <f>K15 + 0.8 / (5 - K15)</f>
         <v>6.7465413039785567</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C15">
+      <c r="N15">
+        <f xml:space="preserve"> 5 / (2 *(5 - K15)) - 1/2 * (5 - K15)</f>
+        <v>6.4469628249329904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>1.0091699999999999</v>
+      </c>
+      <c r="C16">
+        <v>2.97112</v>
+      </c>
+      <c r="D16">
+        <v>3.0289600000000001</v>
+      </c>
+      <c r="K16">
         <v>4.6357299999999997</v>
       </c>
-      <c r="D15">
+      <c r="L16">
         <v>6.5272899999999998</v>
       </c>
-      <c r="E15">
-        <f>C15 + 0.8 / (5 - C15)</f>
+      <c r="M16">
+        <f>K16 + 0.8 / (5 - K16)</f>
         <v>6.8319031682543141</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C16">
+      <c r="N16">
+        <f xml:space="preserve"> 5 / (2 *(5 - K16)) - 1/2 * (5 - K16)</f>
+        <v>6.6809061507947334</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>1.06999</v>
+      </c>
+      <c r="C17">
+        <v>3.14629</v>
+      </c>
+      <c r="D17">
+        <v>3.2119499999999999</v>
+      </c>
+      <c r="K17">
         <v>4.6482700000000001</v>
       </c>
-      <c r="D16">
+      <c r="L17">
         <v>6.5585300000000002</v>
       </c>
-      <c r="E16">
-        <f>C16 + 0.8 / (5 - C16)</f>
+      <c r="M17">
+        <f>K17 + 0.8 / (5 - K17)</f>
         <v>6.9227418960566354</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C17">
+      <c r="N17">
+        <f xml:space="preserve"> 5 / (2 *(5 - K17)) - 1/2 * (5 - K17)</f>
+        <v>6.9318596751769848</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>1.1344700000000001</v>
+      </c>
+      <c r="C18">
+        <v>3.3312200000000001</v>
+      </c>
+      <c r="D18">
+        <v>3.4061300000000001</v>
+      </c>
+      <c r="K18">
         <v>4.6608499999999999</v>
       </c>
-      <c r="D17">
+      <c r="L18">
         <v>6.6199000000000003</v>
       </c>
-      <c r="E17">
-        <f>C17 + 0.8 / (5 - C17)</f>
+      <c r="M18">
+        <f>K18 + 0.8 / (5 - K18)</f>
         <v>7.0196882721509652</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C18">
+      <c r="N18">
+        <f xml:space="preserve"> 5 / (2 *(5 - K18)) - 1/2 * (5 - K18)</f>
+        <v>7.2017946004717661</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>1.20285</v>
+      </c>
+      <c r="C19">
+        <v>3.55071</v>
+      </c>
+      <c r="D19">
+        <v>3.6122299999999998</v>
+      </c>
+      <c r="K19">
         <v>4.6734600000000004</v>
       </c>
-      <c r="D18">
+      <c r="L19">
         <v>6.8066000000000004</v>
       </c>
-      <c r="E18">
-        <f>C18 + 0.8 / (5 - C18)</f>
+      <c r="M19">
+        <f>K19 + 0.8 / (5 - K19)</f>
         <v>7.1233895645250236</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C19">
+      <c r="N19">
+        <f xml:space="preserve"> 5 / (2 *(5 - K19)) - 1/2 * (5 - K19)</f>
+        <v>7.4927598891406966</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>1.2753399999999999</v>
+      </c>
+      <c r="C20">
+        <v>3.7422499999999999</v>
+      </c>
+      <c r="D20">
+        <v>3.8310300000000002</v>
+      </c>
+      <c r="K20">
         <v>4.6860999999999997</v>
       </c>
-      <c r="D19">
+      <c r="L20">
         <v>6.8265500000000001</v>
       </c>
-      <c r="E19">
-        <f>C19 + 0.8 / (5 - C19)</f>
+      <c r="M20">
+        <f>K20 + 0.8 / (5 - K20)</f>
         <v>7.2346823510672165</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C20">
+      <c r="N20">
+        <f xml:space="preserve"> 5 / (2 *(5 - K20)) - 1/2 * (5 - K20)</f>
+        <v>7.8073698470850514</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>1.3522099999999999</v>
+      </c>
+      <c r="C21">
+        <v>4.0096100000000003</v>
+      </c>
+      <c r="D21">
+        <v>4.0633999999999997</v>
+      </c>
+      <c r="K21">
         <v>4.6987800000000002</v>
       </c>
-      <c r="D20">
+      <c r="L21">
         <v>7.0368199999999996</v>
       </c>
-      <c r="E20">
-        <f>C20 + 0.8 / (5 - C20)</f>
+      <c r="M21">
+        <f>K21 + 0.8 / (5 - K21)</f>
         <v>7.3546461443463267</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C21">
+      <c r="N21">
+        <f xml:space="preserve"> 5 / (2 *(5 - K21)) - 1/2 * (5 - K21)</f>
+        <v>8.1489717010822709</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>1.4337</v>
+      </c>
+      <c r="C22">
+        <v>4.2727199999999996</v>
+      </c>
+      <c r="D22">
+        <v>4.3102799999999997</v>
+      </c>
+      <c r="K22">
         <v>4.7114900000000004</v>
       </c>
-      <c r="D21">
+      <c r="L22">
         <v>7.02562</v>
       </c>
-      <c r="E21">
-        <f>C21 + 0.8 / (5 - C21)</f>
+      <c r="M22">
+        <f>K22 + 0.8 / (5 - K22)</f>
         <v>7.4843574915947499</v>
       </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C22">
+      <c r="N22">
+        <f xml:space="preserve"> 5 / (2 *(5 - K22)) - 1/2 * (5 - K22)</f>
+        <v>8.5209559112335924</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>1.5201100000000001</v>
+      </c>
+      <c r="C23">
+        <v>4.5756300000000003</v>
+      </c>
+      <c r="D23">
+        <v>4.5727200000000003</v>
+      </c>
+      <c r="K23">
         <v>4.7242300000000004</v>
       </c>
-      <c r="D22">
+      <c r="L23">
         <v>7.2950200000000001</v>
       </c>
-      <c r="E22">
-        <f>C22 + 0.8 / (5 - C22)</f>
+      <c r="M23">
+        <f>K23 + 0.8 / (5 - K23)</f>
         <v>7.6251981981361325</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C23">
+      <c r="N23">
+        <f xml:space="preserve"> 5 / (2 *(5 - K23)) - 1/2 * (5 - K23)</f>
+        <v>8.9276406191754134</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>1.6117300000000001</v>
+      </c>
+      <c r="C24">
+        <v>4.8175800000000004</v>
+      </c>
+      <c r="D24">
+        <v>4.8518699999999999</v>
+      </c>
+      <c r="K24">
         <v>4.7370099999999997</v>
       </c>
-      <c r="D23">
+      <c r="L24">
         <v>7.4022699999999997</v>
       </c>
-      <c r="E23">
-        <f>C23 + 0.8 / (5 - C23)</f>
+      <c r="M24">
+        <f>K24 + 0.8 / (5 - K24)</f>
         <v>7.7789507582037309</v>
       </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C24">
+      <c r="N24">
+        <f xml:space="preserve"> 5 / (2 *(5 - K24)) - 1/2 * (5 - K24)</f>
+        <v>9.3745698693866579</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>1.70886</v>
+      </c>
+      <c r="C25">
+        <v>5.1352700000000002</v>
+      </c>
+      <c r="D25">
+        <v>5.1490600000000004</v>
+      </c>
+      <c r="K25">
         <v>4.7498300000000002</v>
       </c>
-      <c r="D24">
+      <c r="L25">
         <v>7.5787500000000003</v>
       </c>
-      <c r="E24">
-        <f>C24 + 0.8 / (5 - C24)</f>
+      <c r="M25">
+        <f>K25 + 0.8 / (5 - K25)</f>
         <v>7.9476554786745046</v>
       </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C25">
+      <c r="N25">
+        <f xml:space="preserve"> 5 / (2 *(5 - K25)) - 1/2 * (5 - K25)</f>
+        <v>9.8681196208578257</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>1.81185</v>
+      </c>
+      <c r="C26">
+        <v>5.4437300000000004</v>
+      </c>
+      <c r="D26">
+        <v>5.4657799999999996</v>
+      </c>
+      <c r="K26">
         <v>4.7626799999999996</v>
       </c>
-      <c r="D25">
+      <c r="L26">
         <v>7.9163399999999999</v>
       </c>
-      <c r="E25">
-        <f>C25 + 0.8 / (5 - C25)</f>
+      <c r="M26">
+        <f>K26 + 0.8 / (5 - K26)</f>
         <v>8.1336558975223259</v>
       </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C26">
+      <c r="N26">
+        <f xml:space="preserve"> 5 / (2 *(5 - K26)) - 1/2 * (5 - K26)</f>
+        <v>10.415639679757271</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>1.9210499999999999</v>
+      </c>
+      <c r="C27">
+        <v>5.7807899999999997</v>
+      </c>
+      <c r="D27">
+        <v>5.8037400000000003</v>
+      </c>
+      <c r="K27">
         <v>4.7755599999999996</v>
       </c>
-      <c r="D26">
+      <c r="L27">
         <v>8.3045200000000001</v>
       </c>
-      <c r="E26">
-        <f>C26 + 0.8 / (5 - C26)</f>
+      <c r="M27">
+        <f>K27 + 0.8 / (5 - K27)</f>
         <v>8.3399870183567923</v>
       </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C27">
+      <c r="N27">
+        <f xml:space="preserve"> 5 / (2 *(5 - K27)) - 1/2 * (5 - K27)</f>
+        <v>11.026614432364976</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>2.0368300000000001</v>
+      </c>
+      <c r="C28">
+        <v>6.1670400000000001</v>
+      </c>
+      <c r="D28">
+        <v>6.1649799999999999</v>
+      </c>
+      <c r="K28">
         <v>4.7884799999999998</v>
       </c>
-      <c r="D27">
+      <c r="L28">
         <v>8.5337800000000001</v>
       </c>
-      <c r="E27">
-        <f>C27 + 0.8 / (5 - C27)</f>
+      <c r="M28">
+        <f>K28 + 0.8 / (5 - K28)</f>
         <v>8.570628260211798</v>
       </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C28">
+      <c r="N28">
+        <f xml:space="preserve"> 5 / (2 *(5 - K28)) - 1/2 * (5 - K28)</f>
+        <v>11.713453313161867</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>2.1595900000000001</v>
+      </c>
+      <c r="C29">
+        <v>6.5495799999999997</v>
+      </c>
+      <c r="D29">
+        <v>6.5518900000000002</v>
+      </c>
+      <c r="K29">
         <v>4.8014299999999999</v>
       </c>
-      <c r="D28">
+      <c r="L29">
         <v>9.7190799999999999</v>
       </c>
-      <c r="E28">
-        <f>C28 + 0.8 / (5 - C28)</f>
+      <c r="M29">
+        <f>K29 + 0.8 / (5 - K29)</f>
         <v>8.8302359626328233</v>
       </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C29">
+      <c r="N29">
+        <f xml:space="preserve"> 5 / (2 *(5 - K29)) - 1/2 * (5 - K29)</f>
+        <v>12.490733633227569</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>2.2897500000000002</v>
+      </c>
+      <c r="C30">
+        <v>6.8889899999999997</v>
+      </c>
+      <c r="D30">
+        <v>6.9674399999999999</v>
+      </c>
+      <c r="K30">
         <v>4.8144200000000001</v>
       </c>
-      <c r="D29">
+      <c r="L30">
         <v>9.9779499999999999</v>
       </c>
-      <c r="E29">
-        <f>C29 + 0.8 / (5 - C29)</f>
+      <c r="M30">
+        <f>K30 + 0.8 / (5 - K30)</f>
         <v>9.1252293544563017</v>
       </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C30">
+      <c r="N30">
+        <f xml:space="preserve"> 5 / (2 *(5 - K30)) - 1/2 * (5 - K30)</f>
+        <v>13.378489232675946</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>2.4277500000000001</v>
+      </c>
+      <c r="C31">
+        <v>7.4603099999999998</v>
+      </c>
+      <c r="D31">
+        <v>7.4152699999999996</v>
+      </c>
+      <c r="K31">
         <v>4.8274499999999998</v>
       </c>
-      <c r="D30">
+      <c r="L31">
         <v>12.9169</v>
       </c>
-      <c r="E30">
-        <f>C30 + 0.8 / (5 - C30)</f>
+      <c r="M31">
+        <f>K31 + 0.8 / (5 - K31)</f>
         <v>9.4637872935381004</v>
       </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C31">
+      <c r="N31">
+        <f xml:space="preserve"> 5 / (2 *(5 - K31)) - 1/2 * (5 - K31)</f>
+        <v>14.40227904230656</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>2.5740599999999998</v>
+      </c>
+      <c r="C32">
+        <v>7.9209800000000001</v>
+      </c>
+      <c r="D32">
+        <v>7.9001099999999997</v>
+      </c>
+      <c r="K32">
         <v>4.8405100000000001</v>
       </c>
-      <c r="D31">
+      <c r="L32">
         <v>14.7935</v>
       </c>
-      <c r="E31">
-        <f>C31 + 0.8 / (5 - C31)</f>
+      <c r="M32">
+        <f>K32 + 0.8 / (5 - K32)</f>
         <v>9.8564984632265382</v>
       </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C32">
+      <c r="N32">
+        <f xml:space="preserve"> 5 / (2 *(5 - K32)) - 1/2 * (5 - K32)</f>
+        <v>15.595218947582929</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>2.7292000000000001</v>
+      </c>
+      <c r="C33">
+        <v>8.4104600000000005</v>
+      </c>
+      <c r="D33">
+        <v>8.4281799999999993</v>
+      </c>
+      <c r="K33">
         <v>4.8536000000000001</v>
       </c>
-      <c r="D32">
+      <c r="L33">
         <v>15.524900000000001</v>
       </c>
-      <c r="E32">
-        <f>C32 + 0.8 / (5 - C32)</f>
+      <c r="M33">
+        <f>K33 + 0.8 / (5 - K33)</f>
         <v>10.318080874316944</v>
       </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C33">
+      <c r="N33">
+        <f xml:space="preserve"> 5 / (2 *(5 - K33)) - 1/2 * (5 - K33)</f>
+        <v>17.003302732240453</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>2.8936899999999999</v>
+      </c>
+      <c r="C34">
+        <v>9.0818999999999992</v>
+      </c>
+      <c r="D34">
+        <v>9.0080299999999998</v>
+      </c>
+      <c r="K34">
         <v>4.8667299999999996</v>
       </c>
-      <c r="D33">
+      <c r="L34">
         <v>20.613299999999999</v>
       </c>
-      <c r="E33">
-        <f>C33 + 0.8 / (5 - C33)</f>
+      <c r="M34">
+        <f>K34 + 0.8 / (5 - K34)</f>
         <v>10.869581354393317</v>
       </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C34">
+      <c r="N34">
+        <f xml:space="preserve"> 5 / (2 *(5 - K34)) - 1/2 * (5 - K34)</f>
+        <v>18.692275482479115</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>3.0680900000000002</v>
+      </c>
+      <c r="C35">
+        <v>9.5194200000000002</v>
+      </c>
+      <c r="D35">
+        <v>9.6518599999999992</v>
+      </c>
+      <c r="K35">
         <v>4.8799000000000001</v>
       </c>
-      <c r="D34">
+      <c r="L35">
         <v>22.347000000000001</v>
       </c>
-      <c r="E34">
-        <f>C34 + 0.8 / (5 - C34)</f>
+      <c r="M35">
+        <f>K35 + 0.8 / (5 - K35)</f>
         <v>11.541015736885935</v>
       </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C35">
+      <c r="N35">
+        <f xml:space="preserve"> 5 / (2 *(5 - K35)) - 1/2 * (5 - K35)</f>
+        <v>20.755936677768549</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>3.2530000000000001</v>
+      </c>
+      <c r="C36">
+        <v>10.2714</v>
+      </c>
+      <c r="D36">
+        <v>10.3781</v>
+      </c>
+      <c r="K36">
         <v>4.8930999999999996</v>
       </c>
-      <c r="D35">
+      <c r="L36">
         <v>30.606999999999999</v>
       </c>
-      <c r="E35">
-        <f>C35 + 0.8 / (5 - C35)</f>
+      <c r="M36">
+        <f>K36 + 0.8 / (5 - K36)</f>
         <v>12.376729560336733</v>
       </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C36">
+      <c r="N36">
+        <f xml:space="preserve"> 5 / (2 *(5 - K36)) - 1/2 * (5 - K36)</f>
+        <v>23.332892376052289</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>3.4490500000000002</v>
+      </c>
+      <c r="C37">
+        <v>11.2864</v>
+      </c>
+      <c r="D37">
+        <v>11.215999999999999</v>
+      </c>
+      <c r="K37">
         <v>4.9063299999999996</v>
       </c>
-      <c r="D36">
+      <c r="L37">
         <v>34.305799999999998</v>
       </c>
-      <c r="E36">
-        <f>C36 + 0.8 / (5 - C36)</f>
+      <c r="M37">
+        <f>K37 + 0.8 / (5 - K37)</f>
         <v>13.446951330201738</v>
       </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C37">
+      <c r="N37">
+        <f xml:space="preserve"> 5 / (2 *(5 - K37)) - 1/2 * (5 - K37)</f>
+        <v>26.642606656880432</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>3.6569199999999999</v>
+      </c>
+      <c r="C38">
+        <v>12.090199999999999</v>
+      </c>
+      <c r="D38">
+        <v>12.215999999999999</v>
+      </c>
+      <c r="K38">
         <v>4.9196099999999996</v>
       </c>
-      <c r="D37">
+      <c r="L38">
         <v>36.136299999999999</v>
       </c>
-      <c r="E37">
-        <f>C37 + 0.8 / (5 - C37)</f>
+      <c r="M38">
+        <f>K38 + 0.8 / (5 - K38)</f>
         <v>14.871096503296378</v>
       </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C38">
+      <c r="N38">
+        <f xml:space="preserve"> 5 / (2 *(5 - K38)) - 1/2 * (5 - K38)</f>
+        <v>31.058200322801184</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>3.8773200000000001</v>
+      </c>
+      <c r="C39">
+        <v>13.547800000000001</v>
+      </c>
+      <c r="D39">
+        <v>13.474299999999999</v>
+      </c>
+      <c r="K39">
         <v>4.9329200000000002</v>
       </c>
-      <c r="D38">
+      <c r="L39">
         <v>43.502200000000002</v>
       </c>
-      <c r="E38">
-        <f>C38 + 0.8 / (5 - C38)</f>
+      <c r="M39">
+        <f>K39 + 0.8 / (5 - K39)</f>
         <v>16.858978437686378</v>
       </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C39">
+      <c r="N39">
+        <f xml:space="preserve"> 5 / (2 *(5 - K39)) - 1/2 * (5 - K39)</f>
+        <v>37.235392617769932</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>4.1109999999999998</v>
+      </c>
+      <c r="C40">
+        <v>15.1808</v>
+      </c>
+      <c r="D40">
+        <v>15.1999</v>
+      </c>
+      <c r="K40">
         <v>4.9462599999999997</v>
       </c>
-      <c r="D39">
+      <c r="L40">
         <v>52.274799999999999</v>
       </c>
-      <c r="E39">
-        <f>C39 + 0.8 / (5 - C39)</f>
+      <c r="M40">
+        <f>K40 + 0.8 / (5 - K40)</f>
         <v>19.832750509862205</v>
       </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C40">
+      <c r="N40">
+        <f xml:space="preserve"> 5 / (2 *(5 - K40)) - 1/2 * (5 - K40)</f>
+        <v>46.493412843319391</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>4.3587699999999998</v>
+      </c>
+      <c r="C41">
+        <v>16.7438</v>
+      </c>
+      <c r="D41">
+        <v>17.956900000000001</v>
+      </c>
+      <c r="K41">
         <v>4.9596400000000003</v>
       </c>
-      <c r="D40">
+      <c r="L41">
         <v>55.391800000000003</v>
       </c>
-      <c r="E40">
-        <f>C40 + 0.8 / (5 - C40)</f>
+      <c r="M41">
+        <f>K41 + 0.8 / (5 - K41)</f>
         <v>24.78124555004969</v>
       </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C41">
+      <c r="N41">
+        <f xml:space="preserve"> 5 / (2 *(5 - K41)) - 1/2 * (5 - K41)</f>
+        <v>61.922337343905269</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>4.6214700000000004</v>
+      </c>
+      <c r="C42">
+        <v>22.836300000000001</v>
+      </c>
+      <c r="D42">
+        <v>23.982600000000001</v>
+      </c>
+      <c r="K42">
         <v>4.9730600000000003</v>
       </c>
-      <c r="D41">
+      <c r="L42">
         <v>58.818600000000004</v>
       </c>
-      <c r="E41">
-        <f>C41 + 0.8 / (5 - C41)</f>
+      <c r="M42">
+        <f>K42 + 0.8 / (5 - K42)</f>
         <v>34.668679896065612</v>
       </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C42">
+      <c r="N42">
+        <f xml:space="preserve"> 5 / (2 *(5 - K42)) - 1/2 * (5 - K42)</f>
+        <v>92.785342175205045</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C43">
+        <v>48.436999999999998</v>
+      </c>
+      <c r="D43">
+        <v>61.419800000000002</v>
+      </c>
+      <c r="K43">
         <v>4.98651</v>
       </c>
-      <c r="D42">
+      <c r="L43">
         <v>70.636799999999994</v>
       </c>
-      <c r="E42">
-        <f>C42 + 0.8 / (5 - C42)</f>
+      <c r="M43">
+        <f>K43 + 0.8 / (5 - K43)</f>
         <v>64.289697546330615</v>
       </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C43">
+      <c r="N43">
+        <f xml:space="preserve"> 5 / (2 *(5 - K43)) - 1/2 * (5 - K43)</f>
+        <v>185.31571608228316</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="K44">
         <v>5</v>
       </c>
-      <c r="D43">
+      <c r="L44">
         <v>73.531300000000002</v>
       </c>
-      <c r="E43" t="e">
-        <f>C43 + 0.8 / (5 - C43)</f>
+      <c r="M44" t="e">
+        <f>K44 + 0.8 / (5 - K44)</f>
         <v>#DIV/0!</v>
+      </c>
+      <c r="N44" t="e">
+        <f xml:space="preserve"> 5 / (2 *(5 - K44)) - 1/2 * (5 - K44)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <f xml:space="preserve"> ((5 / (2 *(5 - K52)) - 1/2 * (5 - K52) + 2)) * 2 +  K52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K53">
+        <v>0.5</v>
+      </c>
+      <c r="L53">
+        <v>1.33877</v>
+      </c>
+      <c r="M53">
+        <f xml:space="preserve"> ((5 / (2 *(5 - K53)) - 1/2 * (5 - K53) + 2.203)) * 2 +  K53</f>
+        <v>1.5171111111111109</v>
+      </c>
+    </row>
+    <row r="54" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K54">
+        <v>0.53013399999999999</v>
+      </c>
+      <c r="L54">
+        <v>1.3853</v>
+      </c>
+      <c r="M54">
+        <f t="shared" ref="M54:M57" si="0" xml:space="preserve"> ((5 / (2 *(5 - K54)) - 1/2 * (5 - K54) + 2.203)) * 2 +  K54</f>
+        <v>1.5848697656905153</v>
+      </c>
+    </row>
+    <row r="55" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K55">
+        <v>0.56208499999999995</v>
+      </c>
+      <c r="L55">
+        <v>1.5434600000000001</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="0"/>
+        <v>1.6568251973167574</v>
+      </c>
+    </row>
+    <row r="56" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K56">
+        <v>0.59596099999999996</v>
+      </c>
+      <c r="L56">
+        <v>1.6507099999999999</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="0"/>
+        <v>1.7332434628662456</v>
+      </c>
+    </row>
+    <row r="57" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K57">
+        <v>0.63187899999999997</v>
+      </c>
+      <c r="L57">
+        <v>1.77044</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="0"/>
+        <v>1.8144149360143635</v>
+      </c>
+    </row>
+    <row r="58" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K58">
+        <v>0.66996199999999995</v>
+      </c>
+      <c r="L58">
+        <v>1.89015</v>
+      </c>
+      <c r="M58">
+        <f xml:space="preserve"> (5 / (2 *(5 - K58)) - 1/2 * (5 - K58) + 2.703) + 2 * K58</f>
+        <v>2.4552671386232636</v>
+      </c>
+    </row>
+    <row r="59" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K59">
+        <v>0.71033999999999997</v>
+      </c>
+      <c r="L59">
+        <v>2.00467</v>
+      </c>
+      <c r="M59">
+        <f xml:space="preserve"> (5 / (2 *(5 - K59)) - 1/2 * (5 - K59) + 2.703) + 2 * K59</f>
+        <v>2.5616467717721219</v>
+      </c>
+    </row>
+    <row r="60" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K60">
+        <v>0.75315200000000004</v>
+      </c>
+      <c r="L60">
+        <v>2.1609600000000002</v>
+      </c>
+      <c r="M60">
+        <f xml:space="preserve"> (5 / (2 *(5 - K60)) - 1/2 * (5 - K60) + 2.703) + 2 * K60</f>
+        <v>2.6745518808867188</v>
+      </c>
+    </row>
+    <row r="61" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K61">
+        <v>0.798543</v>
+      </c>
+      <c r="L61">
+        <v>2.3067899999999999</v>
+      </c>
+      <c r="M61">
+        <f xml:space="preserve"> (5 / (2 *(5 - K61)) - 1/2 * (5 - K61) + 2.703) + 2 * K61</f>
+        <v>2.794389175916236</v>
+      </c>
+    </row>
+    <row r="62" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K62">
+        <v>0.84667099999999995</v>
+      </c>
+      <c r="L62">
+        <v>2.4631699999999999</v>
+      </c>
+      <c r="M62">
+        <f xml:space="preserve"> (5 / (2 *(5 - K62)) - 1/2 * (5 - K62) + 2.703) + 2 * K62</f>
+        <v>2.921604291737423</v>
+      </c>
+    </row>
+    <row r="63" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K63">
+        <v>0.89769900000000002</v>
+      </c>
+      <c r="L63">
+        <v>2.63097</v>
+      </c>
+      <c r="M63">
+        <f xml:space="preserve"> (5 / (2 *(5 - K63)) - 1/2 * (5 - K63) + 2.703) + 2 * K63</f>
+        <v>3.0566615824868775</v>
+      </c>
+    </row>
+    <row r="64" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K64">
+        <v>0.95180200000000004</v>
+      </c>
+      <c r="L64">
+        <v>2.7699199999999999</v>
+      </c>
+      <c r="M64">
+        <f xml:space="preserve"> (5 / (2 *(5 - K64)) - 1/2 * (5 - K64) + 2.703) + 2 * K64</f>
+        <v>3.2000637261295024</v>
+      </c>
+    </row>
+    <row r="65" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K65">
+        <v>1.0091699999999999</v>
+      </c>
+      <c r="L65">
+        <v>3.0074900000000002</v>
+      </c>
+      <c r="M65">
+        <f xml:space="preserve"> (5 / (2 *(5 - K65)) - 1/2 * (5 - K65) + 2.703) + 2 * K65</f>
+        <v>3.3523611047701856</v>
+      </c>
+    </row>
+    <row r="66" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K66">
+        <v>1.06999</v>
+      </c>
+      <c r="L66">
+        <v>3.1313599999999999</v>
+      </c>
+      <c r="M66">
+        <f xml:space="preserve"> (5 / (2 *(5 - K66)) - 1/2 * (5 - K66) + 2.703) + 2 * K66</f>
+        <v>3.5141056968684556</v>
+      </c>
+    </row>
+    <row r="67" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K67">
+        <v>1.1344700000000001</v>
+      </c>
+      <c r="L67">
+        <v>3.3332000000000002</v>
+      </c>
+      <c r="M67">
+        <f xml:space="preserve"> (5 / (2 *(5 - K67)) - 1/2 * (5 - K67) + 2.703) + 2 * K67</f>
+        <v>3.6859168439386063</v>
+      </c>
+    </row>
+    <row r="68" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K68">
+        <v>1.20285</v>
+      </c>
+      <c r="L68">
+        <v>3.57917</v>
+      </c>
+      <c r="M68">
+        <f xml:space="preserve"> (5 / (2 *(5 - K68)) - 1/2 * (5 - K68) + 2.703) + 2 * K68</f>
+        <v>3.8685135282382834</v>
+      </c>
+    </row>
+    <row r="69" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K69">
+        <v>1.2753399999999999</v>
+      </c>
+      <c r="L69">
+        <v>3.8451200000000001</v>
+      </c>
+      <c r="M69">
+        <f xml:space="preserve"> (5 / (2 *(5 - K69)) - 1/2 * (5 - K69) + 2.703) + 2 * K69</f>
+        <v>4.0625522036910748</v>
+      </c>
+    </row>
+    <row r="70" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K70">
+        <v>1.3522099999999999</v>
+      </c>
+      <c r="L70">
+        <v>4.01342</v>
+      </c>
+      <c r="M70">
+        <f xml:space="preserve"> (5 / (2 *(5 - K70)) - 1/2 * (5 - K70) + 2.703) + 2 * K70</f>
+        <v>4.2688714700544708</v>
+      </c>
+    </row>
+    <row r="71" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K71">
+        <v>1.4337</v>
+      </c>
+      <c r="L71">
+        <v>4.3544400000000003</v>
+      </c>
+      <c r="M71">
+        <f xml:space="preserve"> (5 / (2 *(5 - K71)) - 1/2 * (5 - K71) + 2.703) + 2 * K71</f>
+        <v>4.4882566455429993</v>
+      </c>
+    </row>
+    <row r="72" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K72">
+        <v>1.5201100000000001</v>
+      </c>
+      <c r="L72">
+        <v>4.5051300000000003</v>
+      </c>
+      <c r="M72">
+        <f xml:space="preserve"> (5 / (2 *(5 - K72)) - 1/2 * (5 - K72) + 2.703) + 2 * K72</f>
+        <v>4.7216885130708155</v>
+      </c>
+    </row>
+    <row r="73" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K73">
+        <v>1.6117300000000001</v>
+      </c>
+      <c r="L73">
+        <v>4.8769900000000002</v>
+      </c>
+      <c r="M73">
+        <f xml:space="preserve"> (5 / (2 *(5 - K73)) - 1/2 * (5 - K73) + 2.703) + 2 * K73</f>
+        <v>4.9701646644895483</v>
+      </c>
+    </row>
+    <row r="74" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K74">
+        <v>1.70886</v>
+      </c>
+      <c r="L74">
+        <v>5.2322499999999996</v>
+      </c>
+      <c r="M74">
+        <f xml:space="preserve"> (5 / (2 *(5 - K74)) - 1/2 * (5 - K74) + 2.703) + 2 * K74</f>
+        <v>5.2347652093195673</v>
+      </c>
+    </row>
+    <row r="75" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K75">
+        <v>1.81185</v>
+      </c>
+      <c r="L75">
+        <v>5.3957899999999999</v>
+      </c>
+      <c r="M75">
+        <f xml:space="preserve"> (5 / (2 *(5 - K75)) - 1/2 * (5 - K75) + 2.703) + 2 * K75</f>
+        <v>5.516778819613255</v>
+      </c>
+    </row>
+    <row r="76" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K76">
+        <v>1.9210499999999999</v>
+      </c>
+      <c r="L76">
+        <v>5.7682900000000004</v>
+      </c>
+      <c r="M76">
+        <f xml:space="preserve"> (5 / (2 *(5 - K76)) - 1/2 * (5 - K76) + 2.703) + 2 * K76</f>
+        <v>5.817590117978531</v>
+      </c>
+    </row>
+    <row r="77" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K77">
+        <v>2.0368300000000001</v>
+      </c>
+      <c r="L77">
+        <v>6.1857800000000003</v>
+      </c>
+      <c r="M77">
+        <f xml:space="preserve"> ((5 / (2 *(5 - K77)) - 1/2 * (5 - K77) + 2.703)) * 2 +  K77</f>
+        <v>6.1670420941761694</v>
+      </c>
+    </row>
+    <row r="78" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K78">
+        <v>2.1595900000000001</v>
+      </c>
+      <c r="L78">
+        <v>6.61416</v>
+      </c>
+      <c r="M78">
+        <f xml:space="preserve"> (5 / (2 *(5 - K78)) - 1/2 * (5 - K78) + 2.703) + 2 * K78</f>
+        <v>6.4821296255646192</v>
+      </c>
+    </row>
+    <row r="79" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K79">
+        <v>2.2897500000000002</v>
+      </c>
+      <c r="L79">
+        <v>6.9168900000000004</v>
+      </c>
+      <c r="M79">
+        <f xml:space="preserve"> (5 / (2 *(5 - K79)) - 1/2 * (5 - K79) + 2.703) + 2 * K79</f>
+        <v>6.8497991306152572</v>
+      </c>
+    </row>
+    <row r="80" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K80">
+        <v>2.4277500000000001</v>
+      </c>
+      <c r="L80">
+        <v>7.3636299999999997</v>
+      </c>
+      <c r="M80">
+        <f xml:space="preserve"> (5 / (2 *(5 - K80)) - 1/2 * (5 - K80) + 2.703) + 2 * K80</f>
+        <v>7.2442867504130621</v>
+      </c>
+    </row>
+    <row r="81" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K81">
+        <v>2.5740599999999998</v>
+      </c>
+      <c r="L81">
+        <v>7.8017300000000001</v>
+      </c>
+      <c r="M81">
+        <f xml:space="preserve"> (5 / (2 *(5 - K81)) - 1/2 * (5 - K81) + 2.703) + 2 * K81</f>
+        <v>7.6686783725071512</v>
+      </c>
+    </row>
+    <row r="82" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K82">
+        <v>2.7292000000000001</v>
+      </c>
+      <c r="L82">
+        <v>8.4537200000000006</v>
+      </c>
+      <c r="M82">
+        <f xml:space="preserve"> (5 / (2 *(5 - K82)) - 1/2 * (5 - K82) + 2.703) + 2 * K82</f>
+        <v>8.1269335916857486</v>
+      </c>
+    </row>
+    <row r="83" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K83">
+        <v>2.8936899999999999</v>
+      </c>
+      <c r="L83">
+        <v>9.10853</v>
+      </c>
+      <c r="M83">
+        <f xml:space="preserve"> (5 / (2 *(5 - K83)) - 1/2 * (5 - K83) + 2.703) + 2 * K83</f>
+        <v>8.6241348090974252</v>
+      </c>
+    </row>
+    <row r="84" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K84">
+        <v>3.0680900000000002</v>
+      </c>
+      <c r="L84">
+        <v>9.7716999999999992</v>
+      </c>
+      <c r="M84">
+        <f xml:space="preserve"> (5 / (2 *(5 - K84)) - 1/2 * (5 - K84) + 2.703) + 2 * K84</f>
+        <v>9.1672811413316353</v>
+      </c>
+    </row>
+    <row r="85" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K85">
+        <v>3.2530000000000001</v>
+      </c>
+      <c r="L85">
+        <v>10.450100000000001</v>
+      </c>
+      <c r="M85">
+        <f xml:space="preserve"> (5 / (2 *(5 - K85)) - 1/2 * (5 - K85) + 2.703) + 2 * K85</f>
+        <v>9.7665246136233534</v>
+      </c>
+    </row>
+    <row r="86" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K86">
+        <v>3.4490500000000002</v>
+      </c>
+      <c r="L86">
+        <v>11.4574</v>
+      </c>
+      <c r="M86">
+        <f xml:space="preserve"> (5 / (2 *(5 - K86)) - 1/2 * (5 - K86) + 2.703) + 2 * K86</f>
+        <v>10.437540277733003</v>
+      </c>
+    </row>
+    <row r="87" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K87">
+        <v>3.6569199999999999</v>
+      </c>
+      <c r="L87">
+        <v>11.8125</v>
+      </c>
+      <c r="M87">
+        <f t="shared" ref="M87:M91" si="1" xml:space="preserve"> ((5 / (2 *(5 - K87)) - 1/2 * (5 - K87) + 3.203)) * 2 + K87</f>
+        <v>12.442626431188014</v>
+      </c>
+    </row>
+    <row r="88" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K88">
+        <v>3.8773200000000001</v>
+      </c>
+      <c r="L88">
+        <v>13.2157</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="1"/>
+        <v>13.614268816759896</v>
+      </c>
+    </row>
+    <row r="89" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K89">
+        <v>4.1109999999999998</v>
+      </c>
+      <c r="L89">
+        <v>15.370200000000001</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="1"/>
+        <v>15.252296962879637</v>
+      </c>
+    </row>
+    <row r="90" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K90">
+        <v>4.3587699999999998</v>
+      </c>
+      <c r="L90">
+        <v>17.473600000000001</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="1"/>
+        <v>17.921054152488182</v>
+      </c>
+    </row>
+    <row r="91" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K91">
+        <v>4.6214700000000004</v>
+      </c>
+      <c r="L91">
+        <v>28.1859</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="1"/>
+        <v>23.85793268221807</v>
+      </c>
+    </row>
+    <row r="92" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K92">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L92">
+        <v>36.978999999999999</v>
+      </c>
+      <c r="M92">
+        <f xml:space="preserve"> ((5 / (2 *(5 - K92)) - 1/2 * (5 - K92) + 3.203)) * 2 + K92</f>
+        <v>61.206000000000174</v>
       </c>
     </row>
   </sheetData>

--- a/ridesharing_sim_qt/results_limited_cap.xlsx
+++ b/ridesharing_sim_qt/results_limited_cap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms119322\Source\Repos\ridesharing_sim_qt\ridesharing_sim_qt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B00103-D49B-427A-A0A1-737B12BA738F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EC88B3-2932-4B77-BEE5-A50A1B7ACE4D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{667B39CD-42C4-4E7C-9ABD-896FAEB1F784}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
   <si>
     <t>B=1500 | 300x300</t>
   </si>
@@ -189,12 +189,36 @@
   <si>
     <t>torus N = 100</t>
   </si>
+  <si>
+    <t>B / B_{1/2}</t>
+  </si>
+  <si>
+    <t>--&gt; Ring ist hier schon definitiv schon durch Kapazität beeinflusst!</t>
+  </si>
+  <si>
+    <t>Ring 25 unlim</t>
+  </si>
+  <si>
+    <t>(1/B fit)</t>
+  </si>
+  <si>
+    <t>minimal unlim</t>
+  </si>
+  <si>
+    <t>B(unlim)/B_{1/2}</t>
+  </si>
+  <si>
+    <t>torus 25 unlim</t>
+  </si>
+  <si>
+    <t>torus 100 unlim</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +261,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -292,7 +324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -308,6 +340,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
@@ -1196,6 +1229,2782 @@
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>B/B_{1/2} aus Rechnung mit</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> unendl. Kapazität</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.0094767348991325E-2"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.90957196076373792"/>
+          <c:h val="0.9019538732896778"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle5!$D$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>minimal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle5!$C$48:$C$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>119.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>423.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>645.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1499.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle5!$D$48:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.29789500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29181400000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47498899999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56291199999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66356400000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76370400000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80656300000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90348600000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90881400000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91300700000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97811400000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97398600000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98681099999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96779800000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98601000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.98663100000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99528399999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FDCD-4738-803B-6694ED437E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle5!$E$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>directed ring N = 25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle5!$C$48:$C$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>119.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>423.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>645.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1499.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle5!$E$48:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.30029600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31737799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47909499999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57384800000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67986500000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.769509</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84569300000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88168599999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91639599999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94420599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.96209100000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97031699999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98129200000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98985199999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99449799999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99855499999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99807599999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0001500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FDCD-4738-803B-6694ED437E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle5!$F$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>directed ring N = 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle5!$C$48:$C$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>119.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>423.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>645.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1499.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle5!$F$48:$F$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.285333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31882300000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46251100000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.577044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68643500000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.783416</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84059799999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90269999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89510000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93485799999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95451399999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97769600000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98211300000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99431499999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99113300000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99482800000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99688100000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99998799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FDCD-4738-803B-6694ED437E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle5!$G$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>directed ring N = 1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle5!$C$48:$C$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>119.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>423.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>645.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1499.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle5!$G$48:$G$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.30316900000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30782900000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45940500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55911100000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67400599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78835200000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82418999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87713399999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91355500000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93629600000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.96057899999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97772499999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97917799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99037699999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99010799999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99397899999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FDCD-4738-803B-6694ED437E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle5!$L$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ring N = 25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle5!$K$48:$K$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>111.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>169.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>258.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>393.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>599.79999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle5!$L$48:$L$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2.3147899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.23293E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2182899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.68831E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22023599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34995799999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50467300000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64197300000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75857200000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82064499999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86802599999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91250100000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93408199999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96506099999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.969476</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.98315799999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98864099999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99123399999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99555899999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FDCD-4738-803B-6694ED437E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle5!$M$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ring N = 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle5!$K$48:$K$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>111.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>169.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>258.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>393.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>599.79999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle5!$M$48:$M$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="1">
+                  <c:v>1.25577E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7012299999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2652599999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.158328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30260100000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.467532</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62304499999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71899500000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81987299999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86169799999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90019700000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93867400000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95906400000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97340199999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.981155</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99160300000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99091200000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FDCD-4738-803B-6694ED437E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle5!$N$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ring N = 1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle5!$K$48:$K$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>111.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>169.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>258.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>393.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>599.79999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle5!$N$48:$N$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.3747000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3967200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2283600000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0770299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10209</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.247167</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41794100000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57191899999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72567599999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79875499999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85696499999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91332400000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93734899999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95436399999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97035899999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.979989</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98627299999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-FDCD-4738-803B-6694ED437E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle5!$X$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>torus N = 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle5!$W$48:$W$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.681818181818182E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.681818181818182E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1363636363636364E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7045454545454544E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8409090909090901E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5454545454545456E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8181818181818177E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10227272727272728</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16477272727272727</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38636363636363635</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58522727272727271</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.89204545454545459</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3579545454545454</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0681818181818183</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1590909090909092</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.8125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.3352272727272725</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.039772727272727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle5!$X$48:$X$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="10">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32525300000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.57067100000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.69737800000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.78337000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85064700000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.89658000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.93010000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95277500000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-FDCD-4738-803B-6694ED437E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>fit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle5!$K$48:$K$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>111.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>169.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>258.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>393.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>599.79999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle5!$O$48:$O$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>4.7619047619047616E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7619047619047616E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13043478260869565</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37499999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48717948717948723</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59183673469387754</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.77011494252873569</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83739837398373995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88700564971751417</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.92277992277992282</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94791666666666663</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96527777777777779</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97693194925028826</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-FDCD-4738-803B-6694ED437E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>minimal unlim</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="55000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle5!$C$48:$C$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>119.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>423.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>645.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1499.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle5!$H$48:$H$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.33550400000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32909100000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49862800000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59494100000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70643400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75892800000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81517799999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.896532</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88664600000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93945199999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.96025499999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98326199999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97815600000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98519900000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-FDCD-4738-803B-6694ED437E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle5!$T$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>torus 25 unlim</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="55000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="63000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle5!$S$48:$S$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>2.8571428571428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8571428571428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8571428571428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8571428571428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8571428571428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8571428571428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7142857142857141E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.7142857142857141E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.7142857142857141E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5714285714285715E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.5714285714285715E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.22857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.31428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.37142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.48571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.54285714285714282</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.62857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.82857142857142863</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.97142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.6571428571428573</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.9142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.1714285714285713</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.5142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.8571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.7714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.3142857142857141</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.9428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.6571428571428575</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.4857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.4285714285714288</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.5142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.7714285714285722</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.171428571428571</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14.685714285714285</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.257142857142856</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>22.057142857142857</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.257142857142856</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>28.942857142857143</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>33.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>37.942857142857143</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43.485714285714288</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>49.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57.028571428571432</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>65.314285714285717</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>74.828571428571422</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>85.714285714285708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle5!$T$48:$T$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>8.0414600000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9078499999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0323099999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8639799999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8626699999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8331499999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.113427</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11368300000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.113051</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14105500000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14117099999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16292899999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18629200000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.188384</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.200762</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.21438399999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.23405999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26112800000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.27119599999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.29596800000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.31579099999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.34570299999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.34820899999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.38259900000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.39640900000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.42530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.46295799999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.485736</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.506602</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.54145200000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.56132199999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.59328199999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.61657200000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64977600000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.67906200000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.69783600000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.73312699999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.75422299999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.78282799999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.800898</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.822496</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.83763200000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.860985</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.87769200000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.88568500000000006</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.89854199999999995</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.916076</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.92377900000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.933056</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.93892699999999996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.94779199999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.95439499999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.95962700000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.96445499999999995</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.96714500000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.97261699999999995</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.97663900000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.98097699999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.98191600000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.98417699999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-FDCD-4738-803B-6694ED437E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>torus 100 unlim</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="53000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle5!$W$48:$W$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.681818181818182E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.681818181818182E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1363636363636364E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7045454545454544E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8409090909090901E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5454545454545456E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8181818181818177E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10227272727272728</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16477272727272727</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38636363636363635</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58522727272727271</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.89204545454545459</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3579545454545454</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0681818181818183</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1590909090909092</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.8125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.3352272727272725</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.039772727272727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle5!$Y$48:$Y$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3.8244899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8838699999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7214599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1645200000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3332399999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.119952</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14896799999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18299099999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23247100000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27756599999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33912999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.40959000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48192299999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56743699999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.66073899999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.73872599999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.820994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.87161999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-FDCD-4738-803B-6694ED437E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="328180400"/>
+        <c:axId val="442032784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="328180400"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1.0000000000000002E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>B/B_{1/2}</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44637350817605304"/>
+              <c:y val="0.92976863771970386"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442032784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="442032784"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1226902540657656E-2"/>
+              <c:y val="0.41353138413933604"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328180400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.68480855833637044"/>
+          <c:y val="0.31993997434535015"/>
+          <c:w val="0.26343337343884404"/>
+          <c:h val="0.68006057363757588"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -9913,6 +12722,257 @@
                 </c:extLst>
               </c15:ser>
             </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="10"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:v>torus 25 unlim</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle5!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle5!$T$48:$T$107</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="60"/>
+                      <c:pt idx="0">
+                        <c:v>8.0414600000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.9078499999999996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8.0323099999999995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7.8639799999999996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7.8626699999999994E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7.8331499999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.113427</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.11368300000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.113051</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.14105500000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.14117099999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.16292899999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.18629200000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.188384</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.200762</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.21438399999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.23405999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.26112800000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.27119599999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.29596800000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.31579099999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.34570299999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.34820899999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.38259900000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.39640900000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.42530000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.46295799999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.485736</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.506602</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.54145200000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.56132199999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0.59328199999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.61657200000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.64977600000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.67906200000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.69783600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0.73312699999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0.75422299999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.78282799999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.800898</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0.822496</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.83763200000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.860985</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.87769200000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.88568500000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.89854199999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.916076</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.92377900000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.933056</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.93892699999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0.94779199999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0.95439499999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0.95962700000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0.96445499999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0.96714500000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0.97261699999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>0.97663900000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0.98097699999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0.98191600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0.98417699999999997</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-54ED-433B-88E5-265FE070E42B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
           </c:ext>
         </c:extLst>
       </c:scatterChart>
@@ -10127,6 +13187,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10487,6 +13587,522 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15468,6 +19084,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>722690</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>125185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>710595</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1FDA006-5DA2-4A3E-A7D6-6450DC933328}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15770,8 +19422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EAA692-DDF7-4B47-9F87-3FE1912675E4}">
   <dimension ref="A1:K256"/>
   <sheetViews>
-    <sheetView topLeftCell="B176" zoomScale="41" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="H217" sqref="H217"/>
+    <sheetView topLeftCell="B62" zoomScale="41" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19443,7 +23095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB681F8D-3760-4112-9442-C552B0617143}">
   <dimension ref="A2:AD92"/>
   <sheetViews>
-    <sheetView topLeftCell="U11" zoomScale="71" workbookViewId="0">
+    <sheetView topLeftCell="E5" zoomScale="126" workbookViewId="0">
       <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
@@ -23367,7 +27019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9155DD1C-99B0-477D-8C97-391193DEA8C4}">
   <dimension ref="C4:I130"/>
   <sheetViews>
-    <sheetView topLeftCell="B113" zoomScale="87" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="87" workbookViewId="0">
       <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
@@ -24977,10 +28629,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46190D0C-5363-41F9-984B-1FEF586806AC}">
-  <dimension ref="A2:M42"/>
+  <dimension ref="A2:Y107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="64" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J8"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="109" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25611,7 +29263,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="33" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:25" x14ac:dyDescent="0.35">
       <c r="L33">
         <v>381.6</v>
       </c>
@@ -25619,7 +29271,7 @@
         <v>598.85699999999997</v>
       </c>
     </row>
-    <row r="34" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:25" x14ac:dyDescent="0.35">
       <c r="L34">
         <v>237.66200000000001</v>
       </c>
@@ -25627,7 +29279,7 @@
         <v>380.798</v>
       </c>
     </row>
-    <row r="35" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:25" x14ac:dyDescent="0.35">
       <c r="L35">
         <v>133.065</v>
       </c>
@@ -25635,7 +29287,7 @@
         <v>242.94</v>
       </c>
     </row>
-    <row r="36" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:25" x14ac:dyDescent="0.35">
       <c r="L36">
         <v>102.423</v>
       </c>
@@ -25643,7 +29295,7 @@
         <v>208.98500000000001</v>
       </c>
     </row>
-    <row r="37" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:25" x14ac:dyDescent="0.35">
       <c r="L37">
         <v>75.407799999999995</v>
       </c>
@@ -25651,7 +29303,7 @@
         <v>175.286</v>
       </c>
     </row>
-    <row r="38" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:25" x14ac:dyDescent="0.35">
       <c r="L38">
         <v>51.764200000000002</v>
       </c>
@@ -25659,24 +29311,1469 @@
         <v>152.012</v>
       </c>
     </row>
-    <row r="39" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:25" x14ac:dyDescent="0.35">
       <c r="M39">
         <v>128.547</v>
       </c>
     </row>
-    <row r="40" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:25" x14ac:dyDescent="0.35">
       <c r="M40">
         <v>97.701999999999998</v>
       </c>
     </row>
-    <row r="41" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:25" x14ac:dyDescent="0.35">
       <c r="M41">
         <v>71.328500000000005</v>
       </c>
     </row>
-    <row r="42" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:25" x14ac:dyDescent="0.35">
       <c r="M42">
         <v>43.896999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="K46" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="3:25" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C47" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M47" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N47" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O47" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q47" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="R47" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S47" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="T47" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="W47" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="X47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y47" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C48">
+        <v>0.5</v>
+      </c>
+      <c r="D48">
+        <v>0.29789500000000002</v>
+      </c>
+      <c r="E48">
+        <v>0.30029600000000001</v>
+      </c>
+      <c r="F48">
+        <v>0.285333</v>
+      </c>
+      <c r="G48">
+        <v>0.30316900000000002</v>
+      </c>
+      <c r="H48">
+        <v>0.33550400000000002</v>
+      </c>
+      <c r="I48">
+        <v>0.21946399999999999</v>
+      </c>
+      <c r="K48">
+        <v>0.2</v>
+      </c>
+      <c r="L48">
+        <v>2.3147899999999999E-2</v>
+      </c>
+      <c r="N48">
+        <v>1.3747000000000001E-2</v>
+      </c>
+      <c r="O48">
+        <f>1/(1+4/K48)</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="T48">
+        <v>8.0414600000000003E-2</v>
+      </c>
+      <c r="W48">
+        <v>5.681818181818182E-3</v>
+      </c>
+      <c r="Y48">
+        <v>3.8244899999999998E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C49">
+        <v>0.5</v>
+      </c>
+      <c r="D49">
+        <v>0.29181400000000002</v>
+      </c>
+      <c r="E49">
+        <v>0.31737799999999999</v>
+      </c>
+      <c r="F49">
+        <v>0.31882300000000002</v>
+      </c>
+      <c r="G49">
+        <v>0.30782900000000002</v>
+      </c>
+      <c r="H49">
+        <v>0.32909100000000002</v>
+      </c>
+      <c r="I49">
+        <v>0.219528</v>
+      </c>
+      <c r="K49">
+        <v>0.2</v>
+      </c>
+      <c r="L49">
+        <v>2.23293E-2</v>
+      </c>
+      <c r="M49">
+        <v>1.25577E-2</v>
+      </c>
+      <c r="N49">
+        <v>1.3967200000000001E-2</v>
+      </c>
+      <c r="O49">
+        <f t="shared" ref="O49:O64" si="0">1/(1+4/K49)</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="T49">
+        <v>7.9078499999999996E-2</v>
+      </c>
+      <c r="W49">
+        <v>5.681818181818182E-3</v>
+      </c>
+      <c r="Y49">
+        <v>3.8838699999999997E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0.47498899999999999</v>
+      </c>
+      <c r="E50">
+        <v>0.47909499999999999</v>
+      </c>
+      <c r="F50">
+        <v>0.46251100000000001</v>
+      </c>
+      <c r="G50">
+        <v>0.45940500000000001</v>
+      </c>
+      <c r="H50">
+        <v>0.49862800000000002</v>
+      </c>
+      <c r="I50">
+        <v>0.28920400000000002</v>
+      </c>
+      <c r="K50">
+        <v>0.4</v>
+      </c>
+      <c r="L50">
+        <v>6.2182899999999999E-2</v>
+      </c>
+      <c r="M50">
+        <v>3.7012299999999998E-2</v>
+      </c>
+      <c r="N50">
+        <v>3.2283600000000003E-2</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="Q50">
+        <v>2</v>
+      </c>
+      <c r="S50">
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="T50">
+        <v>8.0323099999999995E-2</v>
+      </c>
+      <c r="W50">
+        <v>1.1363636363636364E-2</v>
+      </c>
+      <c r="Y50">
+        <v>5.7214599999999997E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C51">
+        <v>1.5</v>
+      </c>
+      <c r="D51">
+        <v>0.56291199999999997</v>
+      </c>
+      <c r="E51">
+        <v>0.57384800000000002</v>
+      </c>
+      <c r="F51">
+        <v>0.577044</v>
+      </c>
+      <c r="G51">
+        <v>0.55911100000000002</v>
+      </c>
+      <c r="H51">
+        <v>0.59494100000000005</v>
+      </c>
+      <c r="I51">
+        <v>0.35541099999999998</v>
+      </c>
+      <c r="K51">
+        <v>0.6</v>
+      </c>
+      <c r="L51">
+        <v>9.68831E-2</v>
+      </c>
+      <c r="M51">
+        <v>7.2652599999999998E-2</v>
+      </c>
+      <c r="N51">
+        <v>6.0770299999999999E-2</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="0"/>
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="Q51">
+        <v>3</v>
+      </c>
+      <c r="S51">
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="T51">
+        <v>7.8639799999999996E-2</v>
+      </c>
+      <c r="W51">
+        <v>1.7045454545454544E-2</v>
+      </c>
+      <c r="Y51">
+        <v>7.1645200000000006E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C52">
+        <v>2.5</v>
+      </c>
+      <c r="D52">
+        <v>0.66356400000000004</v>
+      </c>
+      <c r="E52">
+        <v>0.67986500000000005</v>
+      </c>
+      <c r="F52">
+        <v>0.68643500000000002</v>
+      </c>
+      <c r="G52">
+        <v>0.67400599999999999</v>
+      </c>
+      <c r="H52">
+        <v>0.70643400000000001</v>
+      </c>
+      <c r="I52">
+        <v>0.45928200000000002</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>0.22023599999999999</v>
+      </c>
+      <c r="M52">
+        <v>0.158328</v>
+      </c>
+      <c r="N52">
+        <v>0.10209</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q52">
+        <v>5</v>
+      </c>
+      <c r="R52">
+        <v>1.8425299999999999E-2</v>
+      </c>
+      <c r="S52">
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="T52">
+        <v>7.8626699999999994E-2</v>
+      </c>
+      <c r="W52">
+        <v>2.8409090909090901E-2</v>
+      </c>
+      <c r="Y52">
+        <v>9.3332399999999996E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>0.76370400000000005</v>
+      </c>
+      <c r="E53">
+        <v>0.769509</v>
+      </c>
+      <c r="F53">
+        <v>0.783416</v>
+      </c>
+      <c r="G53">
+        <v>0.78835200000000005</v>
+      </c>
+      <c r="H53">
+        <v>0.75892800000000005</v>
+      </c>
+      <c r="I53">
+        <v>0.62521599999999999</v>
+      </c>
+      <c r="K53">
+        <v>1.6</v>
+      </c>
+      <c r="L53">
+        <v>0.34995799999999999</v>
+      </c>
+      <c r="M53">
+        <v>0.30260100000000001</v>
+      </c>
+      <c r="N53">
+        <v>0.247167</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Q53">
+        <v>8</v>
+      </c>
+      <c r="R53">
+        <v>3.3451099999999998E-2</v>
+      </c>
+      <c r="S53">
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="T53">
+        <v>7.8331499999999998E-2</v>
+      </c>
+      <c r="W53">
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="Y53">
+        <v>0.119952</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>0.80656300000000003</v>
+      </c>
+      <c r="E54">
+        <v>0.84569300000000003</v>
+      </c>
+      <c r="F54">
+        <v>0.84059799999999996</v>
+      </c>
+      <c r="G54">
+        <v>0.82418999999999998</v>
+      </c>
+      <c r="H54">
+        <v>0.81517799999999996</v>
+      </c>
+      <c r="I54">
+        <v>0.72606000000000004</v>
+      </c>
+      <c r="K54">
+        <v>2.4</v>
+      </c>
+      <c r="L54">
+        <v>0.50467300000000004</v>
+      </c>
+      <c r="M54">
+        <v>0.467532</v>
+      </c>
+      <c r="N54">
+        <v>0.41794100000000001</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="0"/>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="Q54">
+        <v>12</v>
+      </c>
+      <c r="R54">
+        <v>5.8838099999999997E-2</v>
+      </c>
+      <c r="S54">
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="T54">
+        <v>0.113427</v>
+      </c>
+      <c r="W54">
+        <v>6.8181818181818177E-2</v>
+      </c>
+      <c r="Y54">
+        <v>0.14896799999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C55">
+        <v>9.5</v>
+      </c>
+      <c r="D55">
+        <v>0.90348600000000001</v>
+      </c>
+      <c r="E55">
+        <v>0.88168599999999997</v>
+      </c>
+      <c r="F55">
+        <v>0.90269999999999995</v>
+      </c>
+      <c r="G55">
+        <v>0.87713399999999997</v>
+      </c>
+      <c r="H55">
+        <v>0.896532</v>
+      </c>
+      <c r="I55">
+        <v>0.81004600000000004</v>
+      </c>
+      <c r="K55">
+        <v>3.8</v>
+      </c>
+      <c r="L55">
+        <v>0.64197300000000002</v>
+      </c>
+      <c r="M55">
+        <v>0.62304499999999996</v>
+      </c>
+      <c r="N55">
+        <v>0.57191899999999996</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="0"/>
+        <v>0.48717948717948723</v>
+      </c>
+      <c r="Q55">
+        <v>19</v>
+      </c>
+      <c r="R55">
+        <v>0.114468</v>
+      </c>
+      <c r="S55">
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="T55">
+        <v>0.11368300000000001</v>
+      </c>
+      <c r="W55">
+        <f xml:space="preserve"> 18 / 176</f>
+        <v>0.10227272727272728</v>
+      </c>
+      <c r="Y55">
+        <v>0.18299099999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C56">
+        <v>14.5</v>
+      </c>
+      <c r="D56">
+        <v>0.90881400000000001</v>
+      </c>
+      <c r="E56">
+        <v>0.91639599999999999</v>
+      </c>
+      <c r="F56">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="G56">
+        <v>0.91355500000000001</v>
+      </c>
+      <c r="H56">
+        <v>0.88664600000000005</v>
+      </c>
+      <c r="I56">
+        <v>0.85578100000000001</v>
+      </c>
+      <c r="K56">
+        <v>5.8</v>
+      </c>
+      <c r="L56">
+        <v>0.75857200000000002</v>
+      </c>
+      <c r="M56">
+        <v>0.71899500000000005</v>
+      </c>
+      <c r="N56">
+        <v>0.72567599999999999</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="0"/>
+        <v>0.59183673469387754</v>
+      </c>
+      <c r="Q56">
+        <v>29</v>
+      </c>
+      <c r="R56">
+        <v>0.23058500000000001</v>
+      </c>
+      <c r="S56">
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="T56">
+        <v>0.113051</v>
+      </c>
+      <c r="W56">
+        <v>0.16477272727272727</v>
+      </c>
+      <c r="Y56">
+        <v>0.23247100000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C57">
+        <v>22</v>
+      </c>
+      <c r="D57">
+        <v>0.91300700000000001</v>
+      </c>
+      <c r="E57">
+        <v>0.94420599999999999</v>
+      </c>
+      <c r="F57">
+        <v>0.93485799999999997</v>
+      </c>
+      <c r="G57">
+        <v>0.93629600000000002</v>
+      </c>
+      <c r="H57">
+        <v>0.93945199999999995</v>
+      </c>
+      <c r="I57">
+        <v>0.89985499999999996</v>
+      </c>
+      <c r="K57">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="L57">
+        <v>0.82064499999999996</v>
+      </c>
+      <c r="M57">
+        <v>0.81987299999999996</v>
+      </c>
+      <c r="N57">
+        <v>0.79875499999999999</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="0"/>
+        <v>0.6875</v>
+      </c>
+      <c r="Q57">
+        <v>44</v>
+      </c>
+      <c r="R57">
+        <v>0.41814299999999999</v>
+      </c>
+      <c r="S57">
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="T57">
+        <v>0.14105500000000001</v>
+      </c>
+      <c r="W57">
+        <v>0.25</v>
+      </c>
+      <c r="Y57">
+        <v>0.27756599999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C58">
+        <v>33.5</v>
+      </c>
+      <c r="D58">
+        <v>0.97811400000000004</v>
+      </c>
+      <c r="E58">
+        <v>0.96209100000000003</v>
+      </c>
+      <c r="F58">
+        <v>0.95451399999999997</v>
+      </c>
+      <c r="G58">
+        <v>0.96057899999999996</v>
+      </c>
+      <c r="H58">
+        <v>0.96025499999999997</v>
+      </c>
+      <c r="I58">
+        <v>0.93290300000000004</v>
+      </c>
+      <c r="K58">
+        <v>13.4</v>
+      </c>
+      <c r="L58">
+        <v>0.86802599999999996</v>
+      </c>
+      <c r="M58">
+        <v>0.86169799999999996</v>
+      </c>
+      <c r="N58">
+        <v>0.85696499999999998</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="0"/>
+        <v>0.77011494252873569</v>
+      </c>
+      <c r="Q58">
+        <v>67</v>
+      </c>
+      <c r="R58">
+        <v>0.55027700000000002</v>
+      </c>
+      <c r="S58">
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="T58">
+        <v>0.14117099999999999</v>
+      </c>
+      <c r="W58">
+        <f>68/176</f>
+        <v>0.38636363636363635</v>
+      </c>
+      <c r="X58">
+        <v>0.02</v>
+      </c>
+      <c r="Y58">
+        <v>0.33912999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C59">
+        <v>51.5</v>
+      </c>
+      <c r="D59">
+        <v>0.97398600000000002</v>
+      </c>
+      <c r="E59">
+        <v>0.97031699999999999</v>
+      </c>
+      <c r="F59">
+        <v>0.97769600000000001</v>
+      </c>
+      <c r="G59">
+        <v>0.97772499999999996</v>
+      </c>
+      <c r="H59">
+        <v>0.98326199999999997</v>
+      </c>
+      <c r="I59">
+        <v>0.95298099999999997</v>
+      </c>
+      <c r="K59">
+        <v>20.6</v>
+      </c>
+      <c r="L59">
+        <v>0.91250100000000001</v>
+      </c>
+      <c r="M59">
+        <v>0.90019700000000002</v>
+      </c>
+      <c r="N59">
+        <v>0.91332400000000002</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="0"/>
+        <v>0.83739837398373995</v>
+      </c>
+      <c r="Q59">
+        <v>103</v>
+      </c>
+      <c r="R59">
+        <v>0.67798800000000004</v>
+      </c>
+      <c r="S59">
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="T59">
+        <v>0.16292899999999999</v>
+      </c>
+      <c r="W59">
+        <v>0.58522727272727271</v>
+      </c>
+      <c r="X59">
+        <v>0.1</v>
+      </c>
+      <c r="Y59">
+        <v>0.40959000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C60">
+        <v>78.5</v>
+      </c>
+      <c r="D60">
+        <v>0.98681099999999999</v>
+      </c>
+      <c r="E60">
+        <v>0.98129200000000005</v>
+      </c>
+      <c r="F60">
+        <v>0.98211300000000001</v>
+      </c>
+      <c r="G60">
+        <v>0.97917799999999999</v>
+      </c>
+      <c r="H60">
+        <v>0.97815600000000003</v>
+      </c>
+      <c r="I60">
+        <v>0.96471899999999999</v>
+      </c>
+      <c r="K60">
+        <v>31.4</v>
+      </c>
+      <c r="L60">
+        <v>0.93408199999999997</v>
+      </c>
+      <c r="M60">
+        <v>0.93867400000000001</v>
+      </c>
+      <c r="N60">
+        <v>0.93734899999999999</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="0"/>
+        <v>0.88700564971751417</v>
+      </c>
+      <c r="Q60">
+        <v>157</v>
+      </c>
+      <c r="R60">
+        <v>0.75975300000000001</v>
+      </c>
+      <c r="S60">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="T60">
+        <v>0.18629200000000001</v>
+      </c>
+      <c r="W60">
+        <v>0.89204545454545459</v>
+      </c>
+      <c r="X60">
+        <v>0.32525300000000001</v>
+      </c>
+      <c r="Y60">
+        <v>0.48192299999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C61">
+        <v>119.5</v>
+      </c>
+      <c r="D61">
+        <v>0.96779800000000005</v>
+      </c>
+      <c r="E61">
+        <v>0.98985199999999995</v>
+      </c>
+      <c r="F61">
+        <v>0.99431499999999995</v>
+      </c>
+      <c r="G61">
+        <v>0.99037699999999995</v>
+      </c>
+      <c r="H61">
+        <v>0.98519900000000005</v>
+      </c>
+      <c r="I61">
+        <v>0.976433</v>
+      </c>
+      <c r="K61">
+        <v>47.8</v>
+      </c>
+      <c r="L61">
+        <v>0.96506099999999995</v>
+      </c>
+      <c r="M61">
+        <v>0.95906400000000003</v>
+      </c>
+      <c r="N61">
+        <v>0.95436399999999999</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="0"/>
+        <v>0.92277992277992282</v>
+      </c>
+      <c r="Q61">
+        <v>239</v>
+      </c>
+      <c r="R61">
+        <v>0.82544399999999996</v>
+      </c>
+      <c r="S61">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="T61">
+        <v>0.188384</v>
+      </c>
+      <c r="W61">
+        <v>1.3579545454545454</v>
+      </c>
+      <c r="X61">
+        <v>0.57067100000000004</v>
+      </c>
+      <c r="Y61">
+        <v>0.56743699999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C62">
+        <v>182</v>
+      </c>
+      <c r="D62">
+        <v>0.98601000000000005</v>
+      </c>
+      <c r="E62">
+        <v>0.99449799999999999</v>
+      </c>
+      <c r="F62">
+        <v>0.99113300000000004</v>
+      </c>
+      <c r="G62">
+        <v>0.99010799999999999</v>
+      </c>
+      <c r="I62">
+        <v>0.98924100000000004</v>
+      </c>
+      <c r="K62">
+        <v>72.8</v>
+      </c>
+      <c r="L62">
+        <v>0.969476</v>
+      </c>
+      <c r="M62">
+        <v>0.97340199999999999</v>
+      </c>
+      <c r="N62">
+        <v>0.97035899999999997</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="0"/>
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="Q62">
+        <v>364</v>
+      </c>
+      <c r="R62">
+        <v>0.881575</v>
+      </c>
+      <c r="S62">
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="T62">
+        <v>0.200762</v>
+      </c>
+      <c r="W62">
+        <v>2.0681818181818183</v>
+      </c>
+      <c r="X62">
+        <v>0.69737800000000005</v>
+      </c>
+      <c r="Y62">
+        <v>0.66073899999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C63">
+        <v>278</v>
+      </c>
+      <c r="D63">
+        <v>0.98663100000000004</v>
+      </c>
+      <c r="E63">
+        <v>0.99855499999999997</v>
+      </c>
+      <c r="F63">
+        <v>0.99482800000000005</v>
+      </c>
+      <c r="G63">
+        <v>0.99397899999999995</v>
+      </c>
+      <c r="I63">
+        <v>0.98633499999999996</v>
+      </c>
+      <c r="K63">
+        <v>111.2</v>
+      </c>
+      <c r="L63">
+        <v>0.98315799999999998</v>
+      </c>
+      <c r="M63">
+        <v>0.981155</v>
+      </c>
+      <c r="N63">
+        <v>0.979989</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="0"/>
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="Q63">
+        <v>556</v>
+      </c>
+      <c r="R63">
+        <v>0.91477600000000003</v>
+      </c>
+      <c r="S63">
+        <v>0.2</v>
+      </c>
+      <c r="T63">
+        <v>0.21438399999999999</v>
+      </c>
+      <c r="W63">
+        <v>3.1590909090909092</v>
+      </c>
+      <c r="X63">
+        <v>0.78337000000000001</v>
+      </c>
+      <c r="Y63">
+        <v>0.73872599999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C64">
+        <v>423.5</v>
+      </c>
+      <c r="D64">
+        <v>0.99528399999999995</v>
+      </c>
+      <c r="E64">
+        <v>0.99807599999999996</v>
+      </c>
+      <c r="F64">
+        <v>0.99688100000000002</v>
+      </c>
+      <c r="I64">
+        <v>0.99443199999999998</v>
+      </c>
+      <c r="K64">
+        <v>169.4</v>
+      </c>
+      <c r="L64">
+        <v>0.98864099999999999</v>
+      </c>
+      <c r="M64">
+        <v>0.99160300000000001</v>
+      </c>
+      <c r="N64">
+        <v>0.98627299999999996</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="0"/>
+        <v>0.97693194925028826</v>
+      </c>
+      <c r="Q64">
+        <v>847</v>
+      </c>
+      <c r="R64">
+        <v>0.94506500000000004</v>
+      </c>
+      <c r="S64">
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="T64">
+        <v>0.23405999999999999</v>
+      </c>
+      <c r="W64">
+        <v>4.8125</v>
+      </c>
+      <c r="X64">
+        <v>0.85064700000000004</v>
+      </c>
+      <c r="Y64">
+        <v>0.820994</v>
+      </c>
+    </row>
+    <row r="65" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C65">
+        <v>645.5</v>
+      </c>
+      <c r="E65">
+        <v>1.0001500000000001</v>
+      </c>
+      <c r="F65">
+        <v>0.99998799999999999</v>
+      </c>
+      <c r="I65">
+        <v>0.99831499999999995</v>
+      </c>
+      <c r="K65">
+        <v>258.2</v>
+      </c>
+      <c r="L65">
+        <v>0.99123399999999995</v>
+      </c>
+      <c r="M65">
+        <v>0.99091200000000002</v>
+      </c>
+      <c r="Q65">
+        <v>1291</v>
+      </c>
+      <c r="R65">
+        <v>0.96224399999999999</v>
+      </c>
+      <c r="S65">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="T65">
+        <v>0.26112800000000003</v>
+      </c>
+      <c r="W65">
+        <v>7.3352272727272725</v>
+      </c>
+      <c r="X65">
+        <v>0.89658000000000004</v>
+      </c>
+      <c r="Y65">
+        <v>0.87161999999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C66">
+        <v>984</v>
+      </c>
+      <c r="K66">
+        <v>393.6</v>
+      </c>
+      <c r="L66">
+        <v>0.99555899999999997</v>
+      </c>
+      <c r="Q66">
+        <v>1968</v>
+      </c>
+      <c r="R66">
+        <v>0.97467300000000001</v>
+      </c>
+      <c r="S66">
+        <v>0.31428571428571428</v>
+      </c>
+      <c r="T66">
+        <v>0.27119599999999999</v>
+      </c>
+      <c r="W66">
+        <v>11.181818181818182</v>
+      </c>
+      <c r="X66">
+        <v>0.93010000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C67">
+        <v>1499.5</v>
+      </c>
+      <c r="K67">
+        <v>599.79999999999995</v>
+      </c>
+      <c r="Q67">
+        <v>2999</v>
+      </c>
+      <c r="S67">
+        <v>0.37142857142857144</v>
+      </c>
+      <c r="T67">
+        <v>0.29596800000000001</v>
+      </c>
+      <c r="W67">
+        <v>17.039772727272727</v>
+      </c>
+      <c r="X67">
+        <v>0.95277500000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="S68">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="T68">
+        <v>0.31579099999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="S69">
+        <v>0.48571428571428571</v>
+      </c>
+      <c r="T69">
+        <v>0.34570299999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="S70">
+        <v>0.54285714285714282</v>
+      </c>
+      <c r="T70">
+        <v>0.34820899999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="S71">
+        <v>0.62857142857142856</v>
+      </c>
+      <c r="T71">
+        <v>0.38259900000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="S72">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="T72">
+        <v>0.39640900000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="S73">
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="T73">
+        <v>0.42530000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="S74">
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="T74">
+        <v>0.46295799999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="S75">
+        <v>1.1142857142857143</v>
+      </c>
+      <c r="T75">
+        <v>0.485736</v>
+      </c>
+    </row>
+    <row r="76" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="S76">
+        <v>1.2571428571428571</v>
+      </c>
+      <c r="T76">
+        <v>0.506602</v>
+      </c>
+    </row>
+    <row r="77" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="S77">
+        <v>1.4571428571428571</v>
+      </c>
+      <c r="T77">
+        <v>0.54145200000000004</v>
+      </c>
+    </row>
+    <row r="78" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="S78">
+        <v>1.6571428571428573</v>
+      </c>
+      <c r="T78">
+        <v>0.56132199999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="S79">
+        <v>1.9142857142857144</v>
+      </c>
+      <c r="T79">
+        <v>0.59328199999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="S80">
+        <v>2.1714285714285713</v>
+      </c>
+      <c r="T80">
+        <v>0.61657200000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S81">
+        <v>2.5142857142857142</v>
+      </c>
+      <c r="T81">
+        <v>0.64977600000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S82">
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="T82">
+        <v>0.67906200000000005</v>
+      </c>
+    </row>
+    <row r="83" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S83">
+        <v>3.2857142857142856</v>
+      </c>
+      <c r="T83">
+        <v>0.69783600000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S84">
+        <v>3.7714285714285714</v>
+      </c>
+      <c r="T84">
+        <v>0.73312699999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S85">
+        <v>4.3142857142857141</v>
+      </c>
+      <c r="T85">
+        <v>0.75422299999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S86">
+        <v>4.9428571428571431</v>
+      </c>
+      <c r="T86">
+        <v>0.78282799999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S87">
+        <v>5.6571428571428575</v>
+      </c>
+      <c r="T87">
+        <v>0.800898</v>
+      </c>
+    </row>
+    <row r="88" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S88">
+        <v>6.4857142857142858</v>
+      </c>
+      <c r="T88">
+        <v>0.822496</v>
+      </c>
+    </row>
+    <row r="89" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S89">
+        <v>7.4285714285714288</v>
+      </c>
+      <c r="T89">
+        <v>0.83763200000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S90">
+        <v>8.5142857142857142</v>
+      </c>
+      <c r="T90">
+        <v>0.860985</v>
+      </c>
+    </row>
+    <row r="91" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S91">
+        <v>9.7714285714285722</v>
+      </c>
+      <c r="T91">
+        <v>0.87769200000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S92">
+        <v>11.171428571428571</v>
+      </c>
+      <c r="T92">
+        <v>0.88568500000000006</v>
+      </c>
+    </row>
+    <row r="93" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S93">
+        <v>12.8</v>
+      </c>
+      <c r="T93">
+        <v>0.89854199999999995</v>
+      </c>
+    </row>
+    <row r="94" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S94">
+        <v>14.685714285714285</v>
+      </c>
+      <c r="T94">
+        <v>0.916076</v>
+      </c>
+    </row>
+    <row r="95" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S95">
+        <v>16.8</v>
+      </c>
+      <c r="T95">
+        <v>0.92377900000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S96">
+        <v>19.257142857142856</v>
+      </c>
+      <c r="T96">
+        <v>0.933056</v>
+      </c>
+    </row>
+    <row r="97" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S97">
+        <v>22.057142857142857</v>
+      </c>
+      <c r="T97">
+        <v>0.93892699999999996</v>
+      </c>
+    </row>
+    <row r="98" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S98">
+        <v>25.257142857142856</v>
+      </c>
+      <c r="T98">
+        <v>0.94779199999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S99">
+        <v>28.942857142857143</v>
+      </c>
+      <c r="T99">
+        <v>0.95439499999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S100">
+        <v>33.142857142857146</v>
+      </c>
+      <c r="T100">
+        <v>0.95962700000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S101">
+        <v>37.942857142857143</v>
+      </c>
+      <c r="T101">
+        <v>0.96445499999999995</v>
+      </c>
+    </row>
+    <row r="102" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S102">
+        <v>43.485714285714288</v>
+      </c>
+      <c r="T102">
+        <v>0.96714500000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S103">
+        <v>49.8</v>
+      </c>
+      <c r="T103">
+        <v>0.97261699999999995</v>
+      </c>
+    </row>
+    <row r="104" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S104">
+        <v>57.028571428571432</v>
+      </c>
+      <c r="T104">
+        <v>0.97663900000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S105">
+        <v>65.314285714285717</v>
+      </c>
+      <c r="T105">
+        <v>0.98097699999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S106">
+        <v>74.828571428571422</v>
+      </c>
+      <c r="T106">
+        <v>0.98191600000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S107">
+        <v>85.714285714285708</v>
+      </c>
+      <c r="T107">
+        <v>0.98417699999999997</v>
       </c>
     </row>
   </sheetData>

--- a/ridesharing_sim_qt/results_limited_cap.xlsx
+++ b/ridesharing_sim_qt/results_limited_cap.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms119322\Source\Repos\ridesharing_sim_qt\ridesharing_sim_qt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EC88B3-2932-4B77-BEE5-A50A1B7ACE4D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB201392-36FD-4888-BE82-D6D55572E8E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{667B39CD-42C4-4E7C-9ABD-896FAEB1F784}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{667B39CD-42C4-4E7C-9ABD-896FAEB1F784}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
-    <sheet name="Tabelle4" sheetId="4" r:id="rId4"/>
-    <sheet name="Tabelle5" sheetId="5" r:id="rId5"/>
+    <sheet name="C(x) versch" sheetId="1" r:id="rId1"/>
+    <sheet name="minimal comp" sheetId="2" r:id="rId2"/>
+    <sheet name="minimal ring comp" sheetId="4" r:id="rId3"/>
+    <sheet name="Eff x = 3.5" sheetId="5" r:id="rId4"/>
+    <sheet name="Eff cap_5 torus_100" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
   <si>
     <t>B=1500 | 300x300</t>
   </si>
@@ -71,15 +72,6 @@
   </si>
   <si>
     <t>bei B = 1500:</t>
-  </si>
-  <si>
-    <t>x = 7.5</t>
-  </si>
-  <si>
-    <t>x = 5</t>
-  </si>
-  <si>
-    <t>E(5) - E(7.5)</t>
   </si>
   <si>
     <t>capacity = 5: scheduled_customers</t>
@@ -212,6 +204,42 @@
   </si>
   <si>
     <t>torus 100 unlim</t>
+  </si>
+  <si>
+    <t>Ring 100 unlim</t>
+  </si>
+  <si>
+    <t>x = 1.0</t>
+  </si>
+  <si>
+    <t>x = 1.5</t>
+  </si>
+  <si>
+    <t>x = 2.0</t>
+  </si>
+  <si>
+    <t>x = 2.5</t>
+  </si>
+  <si>
+    <t>x = 3.0</t>
+  </si>
+  <si>
+    <t>x = 3.1</t>
+  </si>
+  <si>
+    <t>x = 3.2</t>
+  </si>
+  <si>
+    <t>B/B_{1/2}</t>
+  </si>
+  <si>
+    <t>x = 3.3</t>
+  </si>
+  <si>
+    <t>x = 3.5</t>
+  </si>
+  <si>
+    <t>x = 3.4</t>
   </si>
 </sst>
 </file>
@@ -486,7 +514,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle2!$K$5:$K$44</c:f>
+              <c:f>'minimal comp'!$K$5:$K$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -615,7 +643,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle2!$L$5:$L$44</c:f>
+              <c:f>'minimal comp'!$L$5:$L$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -778,7 +806,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle2!$K$5:$K$44</c:f>
+              <c:f>'minimal comp'!$K$5:$K$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -907,7 +935,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle2!$M$5:$M$44</c:f>
+              <c:f>'minimal comp'!$M$5:$M$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -1287,13 +1315,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>B/B_{1/2} aus Rechnung mit</a:t>
+              <a:t>Effizienz</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> unendl. Kapazität</a:t>
+              <a:t> vs. </a:t>
             </a:r>
-            <a:endParaRPr lang="de-DE"/>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>B/B_{1/2,alt}</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1347,7 +1378,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle5!$D$47</c:f>
+              <c:f>'Eff x = 3.5'!$D$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1382,7 +1413,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle5!$C$48:$C$67</c:f>
+              <c:f>'Eff x = 3.5'!$C$48:$C$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1451,7 +1482,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle5!$D$48:$D$64</c:f>
+              <c:f>'Eff x = 3.5'!$D$48:$D$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1517,536 +1548,11 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle5!$E$47</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>directed ring N = 25</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tabelle5!$C$48:$C$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>51.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>78.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>119.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>278</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>423.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>645.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>984</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1499.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tabelle5!$E$48:$E$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0.30029600000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.31737799999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.47909499999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.57384800000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.67986500000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.769509</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.84569300000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.88168599999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.91639599999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.94420599999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.96209100000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.97031699999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.98129200000000005</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.98985199999999995</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.99449799999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.99855499999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.99807599999999996</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0001500000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FDCD-4738-803B-6694ED437E13}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle5!$F$47</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>directed ring N = 100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tabelle5!$C$48:$C$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>51.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>78.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>119.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>278</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>423.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>645.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>984</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1499.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tabelle5!$F$48:$F$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0.285333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.31882300000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.46251100000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.577044</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.68643500000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.783416</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.84059799999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.90269999999999995</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.89510000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.93485799999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.95451399999999997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.97769600000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.98211300000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.99431499999999995</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.99113300000000004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.99482800000000005</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.99688100000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.99998799999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FDCD-4738-803B-6694ED437E13}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle5!$G$47</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>directed ring N = 1000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tabelle5!$C$48:$C$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>51.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>78.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>119.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>278</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>423.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>645.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>984</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1499.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tabelle5!$G$48:$G$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0.30316900000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.30782900000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.45940500000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.55911100000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.67400599999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.78835200000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.82418999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.87713399999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.91355500000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.93629600000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.96057899999999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.97772499999999996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.97917799999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.99037699999999995</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.99010799999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.99397899999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FDCD-4738-803B-6694ED437E13}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle5!$L$47</c:f>
+              <c:f>'Eff x = 3.5'!$L$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2081,7 +1587,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle5!$K$48:$K$67</c:f>
+              <c:f>'Eff x = 3.5'!$K$48:$K$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2150,7 +1656,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle5!$L$48:$L$66</c:f>
+              <c:f>'Eff x = 3.5'!$L$48:$L$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2226,7 +1732,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle5!$M$47</c:f>
+              <c:f>'Eff x = 3.5'!$M$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2261,7 +1767,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle5!$K$48:$K$67</c:f>
+              <c:f>'Eff x = 3.5'!$K$48:$K$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2330,7 +1836,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle5!$M$48:$M$65</c:f>
+              <c:f>'Eff x = 3.5'!$M$48:$M$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -2400,7 +1906,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle5!$N$47</c:f>
+              <c:f>'Eff x = 3.5'!$N$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2441,7 +1947,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle5!$K$48:$K$67</c:f>
+              <c:f>'Eff x = 3.5'!$K$48:$K$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2510,7 +2016,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle5!$N$48:$N$64</c:f>
+              <c:f>'Eff x = 3.5'!$N$48:$N$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2580,7 +2086,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle5!$X$47</c:f>
+              <c:f>'Eff x = 3.5'!$X$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2621,7 +2127,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle5!$W$48:$W$67</c:f>
+              <c:f>'Eff x = 3.5'!$W$48:$W$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2690,7 +2196,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle5!$X$48:$X$67</c:f>
+              <c:f>'Eff x = 3.5'!$X$48:$X$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2772,7 +2278,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle5!$K$48:$K$67</c:f>
+              <c:f>'Eff x = 3.5'!$K$48:$K$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2837,11 +2343,12 @@
                   <c:v>599.79999999999995</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle5!$O$48:$O$64</c:f>
+              <c:f>'Eff x = 3.5'!$O$48:$O$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2897,10 +2404,11 @@
                   <c:v>0.97693194925028826</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-FDCD-4738-803B-6694ED437E13}"/>
             </c:ext>
@@ -2915,8 +2423,8 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:alpha val="58000"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2944,7 +2452,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle5!$C$48:$C$67</c:f>
+              <c:f>'Eff x = 3.5'!$C$48:$C$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3013,51 +2521,54 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle5!$H$48:$H$61</c:f>
+              <c:f>'Eff x = 3.5'!$H$48:$H$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.33550400000000002</c:v>
+                  <c:v>0.501641</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32909100000000002</c:v>
+                  <c:v>0.50169600000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49862800000000002</c:v>
+                  <c:v>0.65673000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59494100000000005</c:v>
+                  <c:v>0.74123700000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70643400000000001</c:v>
+                  <c:v>0.81623500000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75892800000000005</c:v>
+                  <c:v>0.88215699999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.81517799999999996</c:v>
+                  <c:v>0.91690000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.896532</c:v>
+                  <c:v>0.94645100000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88664600000000005</c:v>
+                  <c:v>0.96069800000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93945199999999995</c:v>
+                  <c:v>0.97729699999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.96025499999999997</c:v>
+                  <c:v>0.98646900000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.98326199999999997</c:v>
+                  <c:v>0.99821800000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.97815600000000003</c:v>
+                  <c:v>0.99093600000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.98519900000000005</c:v>
+                  <c:v>0.99825799999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99604999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3074,7 +2585,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle5!$T$47</c:f>
+              <c:f>'Eff x = 3.5'!$T$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3103,10 +2614,10 @@
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="6350">
                 <a:solidFill>
                   <a:schemeClr val="accent1">
-                    <a:alpha val="63000"/>
+                    <a:alpha val="57000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:ln>
@@ -3115,7 +2626,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle5!$S$48:$S$107</c:f>
+              <c:f>'Eff x = 3.5'!$S$48:$S$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -3304,7 +2815,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle5!$T$48:$T$107</c:f>
+              <c:f>'Eff x = 3.5'!$T$48:$T$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -3536,7 +3047,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle5!$W$48:$W$67</c:f>
+              <c:f>'Eff x = 3.5'!$W$48:$W$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3605,7 +3116,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle5!$Y$48:$Y$65</c:f>
+              <c:f>'Eff x = 3.5'!$Y$48:$Y$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -3670,6 +3181,186 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-FDCD-4738-803B-6694ED437E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Eff x = 3.5'!$J$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ring 100 unlim</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Eff x = 3.5'!$K$48:$K$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>111.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>169.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>258.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>393.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>599.79999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Eff x = 3.5'!$J$48:$J$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.214722</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21429899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.275424</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34980699999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45887299999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61083500000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71679300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80893400000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86727699999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90359500000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93537000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95914600000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98486399999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98794499999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99578299999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-FDCD-4738-803B-6694ED437E13}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3683,6 +3374,595 @@
         </c:dLbls>
         <c:axId val="328180400"/>
         <c:axId val="442032784"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Eff x = 3.5'!$E$47</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>directed ring N = 25</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Eff x = 3.5'!$C$48:$C$67</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>9.5</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>14.5</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>33.5</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>51.5</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>78.5</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>119.5</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>182</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>278</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>423.5</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>645.5</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>984</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1499.5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Eff x = 3.5'!$E$48:$E$65</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="18"/>
+                      <c:pt idx="0">
+                        <c:v>0.30029600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.31737799999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.47909499999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.57384800000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.67986500000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.769509</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.84569300000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.88168599999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.91639599999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.94420599999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.96209100000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.97031699999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.98129200000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.98985199999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.99449799999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.99855499999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.99807599999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.0001500000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-FDCD-4738-803B-6694ED437E13}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Eff x = 3.5'!$F$47</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>directed ring N = 100</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Eff x = 3.5'!$C$48:$C$67</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>9.5</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>14.5</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>33.5</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>51.5</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>78.5</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>119.5</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>182</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>278</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>423.5</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>645.5</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>984</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1499.5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Eff x = 3.5'!$F$48:$F$65</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="18"/>
+                      <c:pt idx="0">
+                        <c:v>0.285333</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.31882300000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.46251100000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.577044</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.68643500000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.783416</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.84059799999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.90269999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.89510000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.93485799999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.95451399999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.97769600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.98211300000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.99431499999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.99113300000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.99482800000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.99688100000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.99998799999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-FDCD-4738-803B-6694ED437E13}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Eff x = 3.5'!$G$47</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>directed ring N = 1000</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Eff x = 3.5'!$C$48:$C$67</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>9.5</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>14.5</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>33.5</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>51.5</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>78.5</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>119.5</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>182</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>278</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>423.5</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>645.5</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>984</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1499.5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Eff x = 3.5'!$G$48:$G$65</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="18"/>
+                      <c:pt idx="0">
+                        <c:v>0.30316900000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.30782900000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.45940500000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.55911100000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.67400599999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.78835200000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.82418999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.87713399999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.91355500000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.93629600000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.96057899999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.97772499999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.97917799999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.99037699999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.99010799999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.99397899999999995</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-FDCD-4738-803B-6694ED437E13}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="328180400"/>
@@ -3952,10 +4232,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.68480855833637044"/>
-          <c:y val="0.31993997434535015"/>
-          <c:w val="0.26343337343884404"/>
-          <c:h val="0.68006057363757588"/>
+          <c:x val="0.68007414704339131"/>
+          <c:y val="0.17281250064978831"/>
+          <c:w val="0.20766016313106617"/>
+          <c:h val="0.57818958475408233"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4005,6 +4285,1315 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5800002310787911E-2"/>
+          <c:y val="3.741513633759648E-2"/>
+          <c:w val="0.92267869214092657"/>
+          <c:h val="0.89048158395921795"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Eff cap_5 torus_100'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x = 1.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Eff cap_5 torus_100'!$A$5:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>5.681818181818182E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.681818181818182E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1363636363636364E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7045454545454544E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8409090909090908E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5454545454545456E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8181818181818177E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10795454545454546</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16477272727272727</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38068181818181818</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58522727272727271</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.89204545454545459</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3579545454545454</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0681818181818183</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1590909090909092</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.8125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Eff cap_5 torus_100'!$C$5:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>7.2350399999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1736800000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.130024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17410800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24090400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31364300000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.391899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.489842</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57566899999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66077600000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73351900000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.790273</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85194599999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.89289700000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.91669999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94096400000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.96406599999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BB34-4A31-A15F-40946BE3D167}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Eff cap_5 torus_100'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x = 1.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Eff cap_5 torus_100'!$G$5:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>5.681818181818182E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.681818181818182E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1363636363636364E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7045454545454544E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8409090909090908E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5454545454545456E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8181818181818177E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10795454545454546</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16477272727272727</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38068181818181818</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58522727272727271</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.89204545454545459</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3579545454545454</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0681818181818183</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1590909090909092</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.8125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Eff cap_5 torus_100'!$I$5:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.4001599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.40433E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5740800000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0992499999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.123625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19600600000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26098700000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33902900000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.429892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52124099999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.612645</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.69706400000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.76631899999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.83141799999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.87112000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.911968</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.93977999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BB34-4A31-A15F-40946BE3D167}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Eff cap_5 torus_100'!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x = 2.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Eff cap_5 torus_100'!$M$5:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>5.681818181818182E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.681818181818182E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1363636363636364E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7045454545454544E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8409090909090908E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5454545454545456E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8181818181818177E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10795454545454546</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16477272727272727</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38068181818181818</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58522727272727271</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.89204545454545459</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3579545454545454</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0681818181818183</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1590909090909092</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.8125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Eff cap_5 torus_100'!$O$5:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2.20872E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3601999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7234299999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.30708E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9171699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4353900000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12840799999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23386899999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.323432</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.419076</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52354100000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61071600000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.70544099999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.772783</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.836955</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.87834299999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.91637400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BB34-4A31-A15F-40946BE3D167}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Eff cap_5 torus_100'!$T$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x = 2.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Eff cap_5 torus_100'!$S$5:$S$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.4090909090909088E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.113636363636364E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3863636363636367E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17613636363636365</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26704545454545453</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40909090909090912</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61931818181818177</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4147727272727273</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1420454545454546</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2443181818181817</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9147727272727275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Eff cap_5 torus_100'!$U$5:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.97942E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.53458E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9916700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8227099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.170906</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.320272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44457799999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55410599999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65079200000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73328099999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.80073499999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.85889000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.90180700000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BB34-4A31-A15F-40946BE3D167}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Eff cap_5 torus_100'!$Z$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x = 3.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Eff cap_5 torus_100'!$Y$5:$Y$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.10227272727272728</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15909090909090909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38068181818181818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57954545454545459</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88636363636363635</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3522727272727273</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0681818181818183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1534090909090908</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8068181818181817</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.3295454545454541</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.176136363636363</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.039772727272727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Eff cap_5 torus_100'!$AA$5:$AA$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.7124300000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8833899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.70232E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.198655</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41742600000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57016999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67355200000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75958000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82726500000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87621099999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91469299999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94108199999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.960955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BB34-4A31-A15F-40946BE3D167}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Eff cap_5 torus_100'!$AD$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x = 3.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Eff cap_5 torus_100'!$AC$5:$AC$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.16477272727272727</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38068181818181818</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58522727272727271</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89204545454545459</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3579545454545454</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0681818181818183</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1534090909090908</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3352272727272725</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.045454545454547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Eff cap_5 torus_100'!$AE$5:$AE$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.34761E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.15696E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13627400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40614600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54059400000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66275300000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74927200000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82089299999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87234699999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91328200000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94073600000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95814999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BB34-4A31-A15F-40946BE3D167}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Eff cap_5 torus_100'!$AH$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x = 3.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Eff cap_5 torus_100'!$AG$5:$AG$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.16477272727272727</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38068181818181818</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57954545454545459</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88636363636363635</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3522727272727273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1477272727272729</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8011363636363633</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3238636363636367</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.176136363636363</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Eff cap_5 torus_100'!$AI$5:$AI$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.2599999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4810300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6093499999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51451400000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63897999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73656200000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81206699999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86792000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90939499999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.937975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-BB34-4A31-A15F-40946BE3D167}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1738160655"/>
+        <c:axId val="1657606751"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1738160655"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="7"/>
+          <c:min val="1.0000000000000002E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1657606751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1657606751"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1738160655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78600915038524011"/>
+          <c:y val="0.34481087947532035"/>
+          <c:w val="0.14001516077809253"/>
+          <c:h val="0.3852082458996679"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -4117,7 +5706,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle2!$K$5:$K$44</c:f>
+              <c:f>'minimal comp'!$K$5:$K$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -4246,7 +5835,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle2!$L$5:$L$44</c:f>
+              <c:f>'minimal comp'!$L$5:$L$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -4409,7 +5998,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle2!$K$5:$K$44</c:f>
+              <c:f>'minimal comp'!$K$5:$K$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -4538,7 +6127,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle2!$M$5:$M$44</c:f>
+              <c:f>'minimal comp'!$M$5:$M$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -4746,7 +6335,7 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle2!$K$5:$K$44</c:f>
+              <c:f>'minimal comp'!$K$5:$K$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -4875,7 +6464,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle2!$N$5:$N$44</c:f>
+              <c:f>'minimal comp'!$N$5:$N$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -5329,7 +6918,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle2!$B$3</c:f>
+              <c:f>'minimal comp'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5364,7 +6953,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle2!$A$4:$A$43</c:f>
+              <c:f>'minimal comp'!$A$4:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -5493,7 +7082,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle2!$B$4:$B$43</c:f>
+              <c:f>'minimal comp'!$B$4:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -5632,7 +7221,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle2!$C$3</c:f>
+              <c:f>'minimal comp'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5667,7 +7256,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle2!$A$4:$A$43</c:f>
+              <c:f>'minimal comp'!$A$4:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -5796,7 +7385,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle2!$C$4:$C$43</c:f>
+              <c:f>'minimal comp'!$C$4:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -5935,7 +7524,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle2!$D$3</c:f>
+              <c:f>'minimal comp'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5970,7 +7559,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle2!$A$4:$A$43</c:f>
+              <c:f>'minimal comp'!$A$4:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -6099,7 +7688,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle2!$D$4:$D$43</c:f>
+              <c:f>'minimal comp'!$D$4:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -6238,7 +7827,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle2!$E$3</c:f>
+              <c:f>'minimal comp'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6273,7 +7862,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle2!$A$4:$A$43</c:f>
+              <c:f>'minimal comp'!$A$4:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -6402,7 +7991,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle2!$E$4:$E$43</c:f>
+              <c:f>'minimal comp'!$E$4:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -6870,7 +8459,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle2!$A$4:$A$35</c:f>
+              <c:f>'minimal comp'!$A$4:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -6975,7 +8564,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle2!$B$4:$B$35</c:f>
+              <c:f>'minimal comp'!$B$4:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -7114,7 +8703,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle2!$A$4:$A$35</c:f>
+              <c:f>'minimal comp'!$A$4:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -7219,7 +8808,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle2!$D$4:$D$35</c:f>
+              <c:f>'minimal comp'!$D$4:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -7374,7 +8963,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle2!$A$4:$A$35</c15:sqref>
+                          <c15:sqref>'minimal comp'!$A$4:$A$35</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7485,7 +9074,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle2!$C$4:$C$35</c15:sqref>
+                          <c15:sqref>'minimal comp'!$C$4:$C$35</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7917,7 +9506,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle2!$AC$4:$AC$43</c:f>
+              <c:f>'minimal comp'!$AC$4:$AC$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -8046,7 +9635,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle2!$AD$4:$AD$43</c:f>
+              <c:f>'minimal comp'!$AD$4:$AD$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -8422,7 +10011,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle4!$D$4</c:f>
+              <c:f>'minimal ring comp'!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8457,7 +10046,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle4!$C$5:$C$42</c:f>
+              <c:f>'minimal ring comp'!$C$5:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -8580,7 +10169,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle4!$D$5:$D$42</c:f>
+              <c:f>'minimal ring comp'!$D$5:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -8713,7 +10302,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle4!$E$4</c:f>
+              <c:f>'minimal ring comp'!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8748,7 +10337,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle4!$C$5:$C$42</c:f>
+              <c:f>'minimal ring comp'!$C$5:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -8871,7 +10460,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle4!$E$5:$E$42</c:f>
+              <c:f>'minimal ring comp'!$E$5:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -9266,7 +10855,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle4!$D$47</c:f>
+              <c:f>'minimal ring comp'!$D$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9301,7 +10890,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle4!$C$48:$C$86</c:f>
+              <c:f>'minimal ring comp'!$C$48:$C$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -9427,7 +11016,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle4!$D$48:$D$86</c:f>
+              <c:f>'minimal ring comp'!$D$48:$D$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -9563,7 +11152,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle4!$E$47</c:f>
+              <c:f>'minimal ring comp'!$E$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9598,7 +11187,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle4!$C$48:$C$86</c:f>
+              <c:f>'minimal ring comp'!$C$48:$C$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -9724,7 +11313,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle4!$E$48:$E$86</c:f>
+              <c:f>'minimal ring comp'!$E$48:$E$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -10160,7 +11749,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle4!$D$90</c:f>
+              <c:f>'minimal ring comp'!$D$90</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10195,7 +11784,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle4!$C$91:$C$125</c:f>
+              <c:f>'minimal ring comp'!$C$91:$C$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -10309,7 +11898,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle4!$D$91:$D$125</c:f>
+              <c:f>'minimal ring comp'!$D$91:$D$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -10433,7 +12022,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle4!$E$90</c:f>
+              <c:f>'minimal ring comp'!$E$90</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10468,7 +12057,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle4!$C$91:$C$125</c:f>
+              <c:f>'minimal ring comp'!$C$91:$C$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -10582,7 +12171,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle4!$E$91:$E$125</c:f>
+              <c:f>'minimal ring comp'!$E$91:$E$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -11003,7 +12592,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle5!$C$4</c:f>
+              <c:f>'Eff x = 3.5'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11038,7 +12627,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle5!$B$5:$B$24</c:f>
+              <c:f>'Eff x = 3.5'!$B$5:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -11107,7 +12696,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle5!$C$5:$C$24</c:f>
+              <c:f>'Eff x = 3.5'!$C$5:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -11177,7 +12766,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle5!$D$4</c:f>
+              <c:f>'Eff x = 3.5'!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11212,7 +12801,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle5!$B$5:$B$24</c:f>
+              <c:f>'Eff x = 3.5'!$B$5:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -11281,7 +12870,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle5!$D$5:$D$24</c:f>
+              <c:f>'Eff x = 3.5'!$D$5:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -11357,7 +12946,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle5!$E$4</c:f>
+              <c:f>'Eff x = 3.5'!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11392,7 +12981,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle5!$B$5:$B$24</c:f>
+              <c:f>'Eff x = 3.5'!$B$5:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -11461,7 +13050,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle5!$E$5:$E$24</c:f>
+              <c:f>'Eff x = 3.5'!$E$5:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -11534,7 +13123,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle5!$F$4</c:f>
+              <c:f>'Eff x = 3.5'!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11569,7 +13158,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle5!$B$5:$B$24</c:f>
+              <c:f>'Eff x = 3.5'!$B$5:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -11638,7 +13227,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle5!$F$5:$F$24</c:f>
+              <c:f>'Eff x = 3.5'!$F$5:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -11708,7 +13297,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle5!$G$4</c:f>
+              <c:f>'Eff x = 3.5'!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11743,7 +13332,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle5!$B$5:$B$24</c:f>
+              <c:f>'Eff x = 3.5'!$B$5:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -11812,7 +13401,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle5!$G$5:$G$24</c:f>
+              <c:f>'Eff x = 3.5'!$G$5:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -11885,7 +13474,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle5!$H$4</c:f>
+              <c:f>'Eff x = 3.5'!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11920,7 +13509,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle5!$B$5:$B$24</c:f>
+              <c:f>'Eff x = 3.5'!$B$5:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -11989,7 +13578,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle5!$H$5:$H$24</c:f>
+              <c:f>'Eff x = 3.5'!$H$5:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -12062,7 +13651,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle5!$I$4</c:f>
+              <c:f>'Eff x = 3.5'!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12103,7 +13692,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle5!$B$5:$B$24</c:f>
+              <c:f>'Eff x = 3.5'!$B$5:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -12172,7 +13761,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle5!$I$5:$I$24</c:f>
+              <c:f>'Eff x = 3.5'!$I$5:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -12239,7 +13828,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle5!$J$4</c:f>
+              <c:f>'Eff x = 3.5'!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12280,7 +13869,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle5!$B$5:$B$24</c:f>
+              <c:f>'Eff x = 3.5'!$B$5:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -12349,7 +13938,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle5!$J$5:$J$24</c:f>
+              <c:f>'Eff x = 3.5'!$J$5:$J$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -12413,7 +14002,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle5!$K$4</c:f>
+              <c:f>'Eff x = 3.5'!$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12454,7 +14043,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle5!$B$5:$B$24</c:f>
+              <c:f>'Eff x = 3.5'!$B$5:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -12523,7 +14112,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle5!$K$5:$K$24</c:f>
+              <c:f>'Eff x = 3.5'!$K$5:$K$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -12585,7 +14174,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle5!$L$4</c15:sqref>
+                          <c15:sqref>'Eff x = 3.5'!$L$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -12629,7 +14218,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle5!$B$5:$B$24</c15:sqref>
+                          <c15:sqref>'Eff x = 3.5'!$B$5:$B$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -12704,7 +14293,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle5!$L$5:$L$24</c15:sqref>
+                          <c15:sqref>'Eff x = 3.5'!$L$5:$L$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -12761,7 +14350,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Tabelle5!#REF!</c15:sqref>
@@ -12772,10 +14361,10 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle5!$T$48:$T$107</c15:sqref>
+                          <c15:sqref>'Eff x = 3.5'!$T$48:$T$107</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -12966,7 +14555,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-54ED-433B-88E5-265FE070E42B}"/>
                   </c:ext>
@@ -13227,6 +14816,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14103,6 +15732,522 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19123,6 +21268,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>546099</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>442010</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>30238</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF3CBCFC-D8EF-4A42-832F-5E86C8ED12B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -19422,7 +21608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EAA692-DDF7-4B47-9F87-3FE1912675E4}">
   <dimension ref="A1:K256"/>
   <sheetViews>
-    <sheetView topLeftCell="B62" zoomScale="41" zoomScaleNormal="58" workbookViewId="0">
+    <sheetView zoomScale="41" zoomScaleNormal="58" workbookViewId="0">
       <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
@@ -19439,7 +21625,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="26" x14ac:dyDescent="0.6">
@@ -19903,7 +22089,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B43" s="3">
         <v>4.5</v>
@@ -20799,7 +22985,7 @@
         <v>7.3950399999999998</v>
       </c>
     </row>
-    <row r="82" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>5</v>
       </c>
@@ -20824,18 +23010,18 @@
     </row>
     <row r="87" spans="2:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D88" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.35">
@@ -21274,15 +23460,15 @@
     </row>
     <row r="132" spans="2:4" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B132" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C133" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D133" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.35">
@@ -21709,24 +23895,24 @@
     </row>
     <row r="176" spans="2:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B176" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C177" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D177" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H177" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I177" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.35">
@@ -22803,7 +24989,7 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B238">
         <v>4.9066799999999997</v>
@@ -23095,8 +25281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB681F8D-3760-4112-9442-C552B0617143}">
   <dimension ref="A2:AD92"/>
   <sheetViews>
-    <sheetView topLeftCell="E5" zoomScale="126" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView zoomScale="46" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23110,27 +25296,27 @@
   <sheetData>
     <row r="2" spans="1:30" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>8</v>
@@ -24782,24 +26968,24 @@
     </row>
     <row r="46" spans="1:30" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s">
         <v>27</v>
-      </c>
-      <c r="D47" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.35">
@@ -24870,7 +27056,7 @@
         <v>1.3371500000000001</v>
       </c>
       <c r="K51" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
@@ -24947,7 +27133,7 @@
         <v>1.3853</v>
       </c>
       <c r="M54">
-        <f t="shared" ref="M54:M57" si="3" xml:space="preserve"> ((5 / (2 *(5 - K54)) - 1/2 * (5 - K54) + 2.203)) * 2 +  K54</f>
+        <f xml:space="preserve"> ((5 / (2 *(5 - K54)) - 1/2 * (5 - K54) + 2.203)) * 2 +  K54</f>
         <v>1.5848697656905153</v>
       </c>
     </row>
@@ -24974,7 +27160,7 @@
         <v>1.5434600000000001</v>
       </c>
       <c r="M55">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> ((5 / (2 *(5 - K55)) - 1/2 * (5 - K55) + 2.203)) * 2 +  K55</f>
         <v>1.6568251973167574</v>
       </c>
     </row>
@@ -25001,7 +27187,7 @@
         <v>1.6507099999999999</v>
       </c>
       <c r="M56">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> ((5 / (2 *(5 - K56)) - 1/2 * (5 - K56) + 2.203)) * 2 +  K56</f>
         <v>1.7332434628662456</v>
       </c>
     </row>
@@ -25028,7 +27214,7 @@
         <v>1.77044</v>
       </c>
       <c r="M57">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> ((5 / (2 *(5 - K57)) - 1/2 * (5 - K57) + 2.203)) * 2 +  K57</f>
         <v>1.8144149360143635</v>
       </c>
     </row>
@@ -25055,7 +27241,7 @@
         <v>1.89015</v>
       </c>
       <c r="M58">
-        <f t="shared" ref="M58:M76" si="4" xml:space="preserve"> (5 / (2 *(5 - K58)) - 1/2 * (5 - K58) + 2.703) + 2 * K58</f>
+        <f t="shared" ref="M58:M76" si="3" xml:space="preserve"> (5 / (2 *(5 - K58)) - 1/2 * (5 - K58) + 2.703) + 2 * K58</f>
         <v>2.4552671386232636</v>
       </c>
     </row>
@@ -25082,7 +27268,7 @@
         <v>2.00467</v>
       </c>
       <c r="M59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.5616467717721219</v>
       </c>
     </row>
@@ -25109,7 +27295,7 @@
         <v>2.1609600000000002</v>
       </c>
       <c r="M60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.6745518808867188</v>
       </c>
     </row>
@@ -25136,7 +27322,7 @@
         <v>2.3067899999999999</v>
       </c>
       <c r="M61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.794389175916236</v>
       </c>
     </row>
@@ -25163,7 +27349,7 @@
         <v>2.4631699999999999</v>
       </c>
       <c r="M62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.921604291737423</v>
       </c>
     </row>
@@ -25190,7 +27376,7 @@
         <v>2.63097</v>
       </c>
       <c r="M63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.0566615824868775</v>
       </c>
     </row>
@@ -25217,7 +27403,7 @@
         <v>2.7699199999999999</v>
       </c>
       <c r="M64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.2000637261295024</v>
       </c>
     </row>
@@ -25244,7 +27430,7 @@
         <v>3.0074900000000002</v>
       </c>
       <c r="M65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.3523611047701856</v>
       </c>
     </row>
@@ -25271,7 +27457,7 @@
         <v>3.1313599999999999</v>
       </c>
       <c r="M66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.5141056968684556</v>
       </c>
     </row>
@@ -25298,7 +27484,7 @@
         <v>3.3332000000000002</v>
       </c>
       <c r="M67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.6859168439386063</v>
       </c>
     </row>
@@ -25325,7 +27511,7 @@
         <v>3.57917</v>
       </c>
       <c r="M68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.8685135282382834</v>
       </c>
     </row>
@@ -25352,7 +27538,7 @@
         <v>3.8451200000000001</v>
       </c>
       <c r="M69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.0625522036910748</v>
       </c>
     </row>
@@ -25379,7 +27565,7 @@
         <v>4.01342</v>
       </c>
       <c r="M70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.2688714700544708</v>
       </c>
     </row>
@@ -25406,7 +27592,7 @@
         <v>4.3544400000000003</v>
       </c>
       <c r="M71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.4882566455429993</v>
       </c>
     </row>
@@ -25433,7 +27619,7 @@
         <v>4.5051300000000003</v>
       </c>
       <c r="M72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.7216885130708155</v>
       </c>
     </row>
@@ -25460,7 +27646,7 @@
         <v>4.8769900000000002</v>
       </c>
       <c r="M73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.9701646644895483</v>
       </c>
     </row>
@@ -25487,7 +27673,7 @@
         <v>5.2322499999999996</v>
       </c>
       <c r="M74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5.2347652093195673</v>
       </c>
     </row>
@@ -25514,7 +27700,7 @@
         <v>5.3957899999999999</v>
       </c>
       <c r="M75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5.516778819613255</v>
       </c>
     </row>
@@ -25541,7 +27727,7 @@
         <v>5.7682900000000004</v>
       </c>
       <c r="M76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5.817590117978531</v>
       </c>
     </row>
@@ -25595,7 +27781,7 @@
         <v>6.61416</v>
       </c>
       <c r="M78">
-        <f t="shared" ref="M78:M86" si="5" xml:space="preserve"> (5 / (2 *(5 - K78)) - 1/2 * (5 - K78) + 2.703) + 2 * K78</f>
+        <f t="shared" ref="M78:M86" si="4" xml:space="preserve"> (5 / (2 *(5 - K78)) - 1/2 * (5 - K78) + 2.703) + 2 * K78</f>
         <v>6.4821296255646192</v>
       </c>
     </row>
@@ -25622,7 +27808,7 @@
         <v>6.9168900000000004</v>
       </c>
       <c r="M79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.8497991306152572</v>
       </c>
     </row>
@@ -25649,7 +27835,7 @@
         <v>7.3636299999999997</v>
       </c>
       <c r="M80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.2442867504130621</v>
       </c>
     </row>
@@ -25676,7 +27862,7 @@
         <v>7.8017300000000001</v>
       </c>
       <c r="M81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.6686783725071512</v>
       </c>
     </row>
@@ -25703,7 +27889,7 @@
         <v>8.4537200000000006</v>
       </c>
       <c r="M82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.1269335916857486</v>
       </c>
     </row>
@@ -25730,7 +27916,7 @@
         <v>9.10853</v>
       </c>
       <c r="M83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.6241348090974252</v>
       </c>
     </row>
@@ -25757,7 +27943,7 @@
         <v>9.7716999999999992</v>
       </c>
       <c r="M84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9.1672811413316353</v>
       </c>
     </row>
@@ -25784,7 +27970,7 @@
         <v>10.450100000000001</v>
       </c>
       <c r="M85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9.7665246136233534</v>
       </c>
     </row>
@@ -25811,7 +27997,7 @@
         <v>11.4574</v>
       </c>
       <c r="M86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10.437540277733003</v>
       </c>
     </row>
@@ -25838,7 +28024,7 @@
         <v>11.8125</v>
       </c>
       <c r="M87">
-        <f t="shared" ref="M87:M91" si="6" xml:space="preserve"> ((5 / (2 *(5 - K87)) - 1/2 * (5 - K87) + 3.203)) * 2 + K87</f>
+        <f t="shared" ref="M87:M92" si="5" xml:space="preserve"> ((5 / (2 *(5 - K87)) - 1/2 * (5 - K87) + 3.203)) * 2 + K87</f>
         <v>12.442626431188014</v>
       </c>
     </row>
@@ -25850,7 +28036,7 @@
         <v>13.2157</v>
       </c>
       <c r="M88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>13.614268816759896</v>
       </c>
     </row>
@@ -25862,7 +28048,7 @@
         <v>15.370200000000001</v>
       </c>
       <c r="M89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>15.252296962879637</v>
       </c>
     </row>
@@ -25874,7 +28060,7 @@
         <v>17.473600000000001</v>
       </c>
       <c r="M90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17.921054152488182</v>
       </c>
     </row>
@@ -25886,7 +28072,7 @@
         <v>28.1859</v>
       </c>
       <c r="M91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>23.85793268221807</v>
       </c>
     </row>
@@ -25898,7 +28084,7 @@
         <v>36.978999999999999</v>
       </c>
       <c r="M92">
-        <f xml:space="preserve"> ((5 / (2 *(5 - K92)) - 1/2 * (5 - K92) + 3.203)) * 2 + K92</f>
+        <f t="shared" si="5"/>
         <v>61.206000000000174</v>
       </c>
     </row>
@@ -25910,1112 +28096,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495309AD-C908-4389-9F43-60ADFACB16F2}">
-  <dimension ref="B3:F63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>8.0414600000000003E-2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>7.9835699999999996E-2</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F35" si="0">E4-C4</f>
-        <v>-5.7890000000000719E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>7.9078499999999996E-2</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>8.02316E-2</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>1.1531000000000041E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>8.0323099999999995E-2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>7.9896400000000006E-2</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>-4.266999999999882E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>7.8639799999999996E-2</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>8.0840800000000004E-2</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>2.2010000000000085E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>7.8626699999999994E-2</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>7.88933E-2</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>2.6660000000000572E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>7.8331499999999998E-2</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>8.0924800000000005E-2</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>2.5933000000000067E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>0.113427</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>0.117439</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>4.0120000000000017E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>0.11368300000000001</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>0.116802</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>3.1189999999999968E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>0.113051</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>0.11783399999999999</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>4.7829999999999956E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>0.14105500000000001</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>0.14232800000000001</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>1.2729999999999964E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>0.14117099999999999</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>0.14577499999999999</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>4.603999999999997E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>0.16292899999999999</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>0.16914899999999999</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>6.2200000000000033E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>0.18629200000000001</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>0.19073999999999999</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>4.4479999999999797E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>0.188384</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <v>0.192693</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>4.3090000000000073E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>0.200762</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
-      <c r="E18">
-        <v>0.210199</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>9.4370000000000009E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19">
-        <v>7</v>
-      </c>
-      <c r="C19">
-        <v>0.21438399999999999</v>
-      </c>
-      <c r="D19">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>0.22387699999999999</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>9.4930000000000014E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>0.23405999999999999</v>
-      </c>
-      <c r="D20">
-        <v>8</v>
-      </c>
-      <c r="E20">
-        <v>0.243066</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>9.006000000000014E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21">
-        <v>10</v>
-      </c>
-      <c r="C21">
-        <v>0.26112800000000003</v>
-      </c>
-      <c r="D21">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <v>0.26897100000000002</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>7.8429999999999889E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22">
-        <v>11</v>
-      </c>
-      <c r="C22">
-        <v>0.27119599999999999</v>
-      </c>
-      <c r="D22">
-        <v>11</v>
-      </c>
-      <c r="E22">
-        <v>0.281053</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>9.8570000000000046E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23">
-        <v>13</v>
-      </c>
-      <c r="C23">
-        <v>0.29596800000000001</v>
-      </c>
-      <c r="D23">
-        <v>13</v>
-      </c>
-      <c r="E23">
-        <v>0.30676500000000001</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>1.0797000000000001E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24">
-        <v>15</v>
-      </c>
-      <c r="C24">
-        <v>0.31579099999999999</v>
-      </c>
-      <c r="D24">
-        <v>15</v>
-      </c>
-      <c r="E24">
-        <v>0.33227400000000001</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>1.6483000000000025E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25">
-        <v>17</v>
-      </c>
-      <c r="C25">
-        <v>0.34570299999999998</v>
-      </c>
-      <c r="D25">
-        <v>17</v>
-      </c>
-      <c r="E25">
-        <v>0.34605999999999998</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>3.5699999999999621E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26">
-        <v>19</v>
-      </c>
-      <c r="C26">
-        <v>0.34820899999999999</v>
-      </c>
-      <c r="D26">
-        <v>19</v>
-      </c>
-      <c r="E26">
-        <v>0.36857400000000001</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>2.0365000000000022E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27">
-        <v>22</v>
-      </c>
-      <c r="C27">
-        <v>0.38259900000000002</v>
-      </c>
-      <c r="D27">
-        <v>22</v>
-      </c>
-      <c r="E27">
-        <v>0.39078600000000002</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>8.1869999999999998E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28">
-        <v>25</v>
-      </c>
-      <c r="C28">
-        <v>0.39640900000000001</v>
-      </c>
-      <c r="D28">
-        <v>25</v>
-      </c>
-      <c r="E28">
-        <v>0.41817199999999999</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>2.1762999999999977E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29">
-        <v>29</v>
-      </c>
-      <c r="C29">
-        <v>0.42530000000000001</v>
-      </c>
-      <c r="D29">
-        <v>29</v>
-      </c>
-      <c r="E29">
-        <v>0.44320399999999999</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>1.7903999999999975E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30">
-        <v>34</v>
-      </c>
-      <c r="C30">
-        <v>0.46295799999999998</v>
-      </c>
-      <c r="D30">
-        <v>34</v>
-      </c>
-      <c r="E30">
-        <v>0.47363300000000003</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>1.0675000000000046E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31">
-        <v>39</v>
-      </c>
-      <c r="C31">
-        <v>0.485736</v>
-      </c>
-      <c r="D31">
-        <v>39</v>
-      </c>
-      <c r="E31">
-        <v>0.49241400000000002</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>6.6780000000000173E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32">
-        <v>44</v>
-      </c>
-      <c r="C32">
-        <v>0.506602</v>
-      </c>
-      <c r="D32">
-        <v>44</v>
-      </c>
-      <c r="E32">
-        <v>0.52508999999999995</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>1.8487999999999949E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33">
-        <v>51</v>
-      </c>
-      <c r="C33">
-        <v>0.54145200000000004</v>
-      </c>
-      <c r="D33">
-        <v>51</v>
-      </c>
-      <c r="E33">
-        <v>0.55059800000000003</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>9.1459999999999875E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34">
-        <v>58</v>
-      </c>
-      <c r="C34">
-        <v>0.56132199999999999</v>
-      </c>
-      <c r="D34">
-        <v>58</v>
-      </c>
-      <c r="E34">
-        <v>0.57883799999999996</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="0"/>
-        <v>1.7515999999999976E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35">
-        <v>67</v>
-      </c>
-      <c r="C35">
-        <v>0.59328199999999998</v>
-      </c>
-      <c r="D35">
-        <v>67</v>
-      </c>
-      <c r="E35">
-        <v>0.61282599999999998</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>1.9544000000000006E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36">
-        <v>76</v>
-      </c>
-      <c r="C36">
-        <v>0.61657200000000001</v>
-      </c>
-      <c r="D36">
-        <v>76</v>
-      </c>
-      <c r="E36">
-        <v>0.63716099999999998</v>
-      </c>
-      <c r="F36">
-        <f t="shared" ref="F36:F67" si="1">E36-C36</f>
-        <v>2.0588999999999968E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B37">
-        <v>88</v>
-      </c>
-      <c r="C37">
-        <v>0.64977600000000002</v>
-      </c>
-      <c r="D37">
-        <v>88</v>
-      </c>
-      <c r="E37">
-        <v>0.66638299999999995</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="1"/>
-        <v>1.6606999999999927E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B38">
-        <v>100</v>
-      </c>
-      <c r="C38">
-        <v>0.67906200000000005</v>
-      </c>
-      <c r="D38">
-        <v>100</v>
-      </c>
-      <c r="E38">
-        <v>0.70407600000000004</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="1"/>
-        <v>2.5013999999999981E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B39">
-        <v>115</v>
-      </c>
-      <c r="C39">
-        <v>0.69783600000000001</v>
-      </c>
-      <c r="D39">
-        <v>115</v>
-      </c>
-      <c r="E39">
-        <v>0.72490399999999999</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="1"/>
-        <v>2.7067999999999981E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B40">
-        <v>132</v>
-      </c>
-      <c r="C40">
-        <v>0.73312699999999997</v>
-      </c>
-      <c r="D40">
-        <v>132</v>
-      </c>
-      <c r="E40">
-        <v>0.748552</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="1"/>
-        <v>1.5425000000000022E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B41">
-        <v>151</v>
-      </c>
-      <c r="C41">
-        <v>0.75422299999999998</v>
-      </c>
-      <c r="D41">
-        <v>151</v>
-      </c>
-      <c r="E41">
-        <v>0.77007400000000004</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="1"/>
-        <v>1.5851000000000059E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B42">
-        <v>173</v>
-      </c>
-      <c r="C42">
-        <v>0.78282799999999997</v>
-      </c>
-      <c r="D42">
-        <v>173</v>
-      </c>
-      <c r="E42">
-        <v>0.79846499999999998</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="1"/>
-        <v>1.5637000000000012E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B43">
-        <v>198</v>
-      </c>
-      <c r="C43">
-        <v>0.800898</v>
-      </c>
-      <c r="D43">
-        <v>198</v>
-      </c>
-      <c r="E43">
-        <v>0.81301500000000004</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="1"/>
-        <v>1.2117000000000044E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B44">
-        <v>227</v>
-      </c>
-      <c r="C44">
-        <v>0.822496</v>
-      </c>
-      <c r="D44">
-        <v>227</v>
-      </c>
-      <c r="E44">
-        <v>0.83522700000000005</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="1"/>
-        <v>1.2731000000000048E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B45">
-        <v>260</v>
-      </c>
-      <c r="C45">
-        <v>0.83763200000000004</v>
-      </c>
-      <c r="D45">
-        <v>260</v>
-      </c>
-      <c r="E45">
-        <v>0.85709199999999996</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="1"/>
-        <v>1.9459999999999922E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B46">
-        <v>298</v>
-      </c>
-      <c r="C46">
-        <v>0.860985</v>
-      </c>
-      <c r="D46">
-        <v>298</v>
-      </c>
-      <c r="E46">
-        <v>0.86645099999999997</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="1"/>
-        <v>5.4659999999999709E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B47">
-        <v>342</v>
-      </c>
-      <c r="C47">
-        <v>0.87769200000000003</v>
-      </c>
-      <c r="D47">
-        <v>342</v>
-      </c>
-      <c r="E47">
-        <v>0.87862399999999996</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="1"/>
-        <v>9.3199999999993288E-4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B48">
-        <v>391</v>
-      </c>
-      <c r="C48">
-        <v>0.88568500000000006</v>
-      </c>
-      <c r="D48">
-        <v>391</v>
-      </c>
-      <c r="E48">
-        <v>0.89952900000000002</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="1"/>
-        <v>1.3843999999999967E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B49">
-        <v>448</v>
-      </c>
-      <c r="C49">
-        <v>0.89854199999999995</v>
-      </c>
-      <c r="D49">
-        <v>448</v>
-      </c>
-      <c r="E49">
-        <v>0.90845500000000001</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="1"/>
-        <v>9.9130000000000607E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B50">
-        <v>514</v>
-      </c>
-      <c r="C50">
-        <v>0.916076</v>
-      </c>
-      <c r="D50">
-        <v>514</v>
-      </c>
-      <c r="E50">
-        <v>0.92149400000000004</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="1"/>
-        <v>5.4180000000000339E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B51">
-        <v>588</v>
-      </c>
-      <c r="C51">
-        <v>0.92377900000000002</v>
-      </c>
-      <c r="D51">
-        <v>588</v>
-      </c>
-      <c r="E51">
-        <v>0.92919200000000002</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="1"/>
-        <v>5.4130000000000011E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B52">
-        <v>674</v>
-      </c>
-      <c r="C52">
-        <v>0.933056</v>
-      </c>
-      <c r="D52">
-        <v>674</v>
-      </c>
-      <c r="E52">
-        <v>0.94041799999999998</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="1"/>
-        <v>7.3619999999999797E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B53">
-        <v>772</v>
-      </c>
-      <c r="C53">
-        <v>0.93892699999999996</v>
-      </c>
-      <c r="D53">
-        <v>772</v>
-      </c>
-      <c r="E53">
-        <v>0.946743</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="1"/>
-        <v>7.8160000000000451E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B54">
-        <v>884</v>
-      </c>
-      <c r="C54">
-        <v>0.94779199999999997</v>
-      </c>
-      <c r="D54">
-        <v>884</v>
-      </c>
-      <c r="E54">
-        <v>0.95206400000000002</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="1"/>
-        <v>4.2720000000000535E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B55">
-        <v>1013</v>
-      </c>
-      <c r="C55">
-        <v>0.95439499999999999</v>
-      </c>
-      <c r="D55">
-        <v>1013</v>
-      </c>
-      <c r="E55">
-        <v>0.95711199999999996</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="1"/>
-        <v>2.7169999999999694E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B56">
-        <v>1160</v>
-      </c>
-      <c r="C56">
-        <v>0.95962700000000001</v>
-      </c>
-      <c r="D56">
-        <v>1160</v>
-      </c>
-      <c r="E56">
-        <v>0.96489800000000003</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="1"/>
-        <v>5.2710000000000257E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B57">
-        <v>1328</v>
-      </c>
-      <c r="C57">
-        <v>0.96445499999999995</v>
-      </c>
-      <c r="D57">
-        <v>1328</v>
-      </c>
-      <c r="E57">
-        <v>0.96800900000000001</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="1"/>
-        <v>3.5540000000000571E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B58">
-        <v>1522</v>
-      </c>
-      <c r="C58">
-        <v>0.96714500000000003</v>
-      </c>
-      <c r="D58">
-        <v>1522</v>
-      </c>
-      <c r="E58">
-        <v>0.97084700000000002</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="1"/>
-        <v>3.7019999999999831E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B59">
-        <v>1743</v>
-      </c>
-      <c r="C59">
-        <v>0.97261699999999995</v>
-      </c>
-      <c r="D59">
-        <v>1743</v>
-      </c>
-      <c r="E59">
-        <v>0.974468</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="1"/>
-        <v>1.8510000000000471E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B60">
-        <v>1996</v>
-      </c>
-      <c r="C60">
-        <v>0.97663900000000003</v>
-      </c>
-      <c r="D60">
-        <v>1996</v>
-      </c>
-      <c r="E60">
-        <v>0.97825700000000004</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="1"/>
-        <v>1.6180000000000083E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B61">
-        <v>2286</v>
-      </c>
-      <c r="C61">
-        <v>0.98097699999999999</v>
-      </c>
-      <c r="D61">
-        <v>2286</v>
-      </c>
-      <c r="E61">
-        <v>0.98158299999999998</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="1"/>
-        <v>6.0599999999999543E-4</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B62">
-        <v>2619</v>
-      </c>
-      <c r="C62">
-        <v>0.98191600000000001</v>
-      </c>
-      <c r="D62">
-        <v>2619</v>
-      </c>
-      <c r="E62">
-        <v>0.98191499999999998</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="1"/>
-        <v>-1.0000000000287557E-6</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B63">
-        <v>3000</v>
-      </c>
-      <c r="C63">
-        <v>0.98417699999999997</v>
-      </c>
-      <c r="D63">
-        <v>3000</v>
-      </c>
-      <c r="E63">
-        <v>0.98486799999999997</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="1"/>
-        <v>6.9099999999999717E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9155DD1C-99B0-477D-8C97-391193DEA8C4}">
   <dimension ref="C4:I130"/>
   <sheetViews>
@@ -27031,19 +28111,19 @@
   <sheetData>
     <row r="4" spans="3:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.35">
@@ -27720,13 +28800,13 @@
     </row>
     <row r="47" spans="3:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C47" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.35">
@@ -28171,13 +29251,13 @@
     </row>
     <row r="90" spans="3:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C90" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.35">
@@ -28627,12 +29707,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46190D0C-5363-41F9-984B-1FEF586806AC}">
   <dimension ref="A2:Y107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="109" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="S47" sqref="S47"/>
+    <sheetView topLeftCell="A6" zoomScale="49" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28642,39 +29722,39 @@
   <sheetData>
     <row r="2" spans="1:11" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -29220,7 +30300,7 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="L27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.35">
@@ -29333,66 +30413,69 @@
     </row>
     <row r="46" spans="3:25" x14ac:dyDescent="0.35">
       <c r="K46" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="3:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C47" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M47" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N47" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O47" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="Q47" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="R47" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F47" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G47" s="10" t="s">
+      <c r="S47" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T47" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W47" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="X47" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="Y47" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K47" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L47" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="M47" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="N47" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="O47" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q47" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="R47" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="S47" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="T47" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="W47" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="X47" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y47" s="10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="48" spans="3:25" x14ac:dyDescent="0.35">
@@ -29412,10 +30495,13 @@
         <v>0.30316900000000002</v>
       </c>
       <c r="H48">
-        <v>0.33550400000000002</v>
+        <v>0.501641</v>
       </c>
       <c r="I48">
         <v>0.21946399999999999</v>
+      </c>
+      <c r="J48">
+        <v>0.214722</v>
       </c>
       <c r="K48">
         <v>0.2</v>
@@ -29463,10 +30549,13 @@
         <v>0.30782900000000002</v>
       </c>
       <c r="H49">
-        <v>0.32909100000000002</v>
+        <v>0.50169600000000003</v>
       </c>
       <c r="I49">
         <v>0.219528</v>
+      </c>
+      <c r="J49">
+        <v>0.21429899999999999</v>
       </c>
       <c r="K49">
         <v>0.2</v>
@@ -29517,10 +30606,13 @@
         <v>0.45940500000000001</v>
       </c>
       <c r="H50">
-        <v>0.49862800000000002</v>
+        <v>0.65673000000000004</v>
       </c>
       <c r="I50">
         <v>0.28920400000000002</v>
+      </c>
+      <c r="J50">
+        <v>0.275424</v>
       </c>
       <c r="K50">
         <v>0.4</v>
@@ -29571,10 +30663,13 @@
         <v>0.55911100000000002</v>
       </c>
       <c r="H51">
-        <v>0.59494100000000005</v>
+        <v>0.74123700000000003</v>
       </c>
       <c r="I51">
         <v>0.35541099999999998</v>
+      </c>
+      <c r="J51">
+        <v>0.34980699999999998</v>
       </c>
       <c r="K51">
         <v>0.6</v>
@@ -29625,10 +30720,13 @@
         <v>0.67400599999999999</v>
       </c>
       <c r="H52">
-        <v>0.70643400000000001</v>
+        <v>0.81623500000000004</v>
       </c>
       <c r="I52">
         <v>0.45928200000000002</v>
+      </c>
+      <c r="J52">
+        <v>0.45887299999999998</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -29682,10 +30780,13 @@
         <v>0.78835200000000005</v>
       </c>
       <c r="H53">
-        <v>0.75892800000000005</v>
+        <v>0.88215699999999997</v>
       </c>
       <c r="I53">
         <v>0.62521599999999999</v>
+      </c>
+      <c r="J53">
+        <v>0.61083500000000002</v>
       </c>
       <c r="K53">
         <v>1.6</v>
@@ -29739,10 +30840,13 @@
         <v>0.82418999999999998</v>
       </c>
       <c r="H54">
-        <v>0.81517799999999996</v>
+        <v>0.91690000000000005</v>
       </c>
       <c r="I54">
         <v>0.72606000000000004</v>
+      </c>
+      <c r="J54">
+        <v>0.71679300000000001</v>
       </c>
       <c r="K54">
         <v>2.4</v>
@@ -29796,10 +30900,13 @@
         <v>0.87713399999999997</v>
       </c>
       <c r="H55">
-        <v>0.896532</v>
+        <v>0.94645100000000004</v>
       </c>
       <c r="I55">
         <v>0.81004600000000004</v>
+      </c>
+      <c r="J55">
+        <v>0.80893400000000004</v>
       </c>
       <c r="K55">
         <v>3.8</v>
@@ -29854,10 +30961,13 @@
         <v>0.91355500000000001</v>
       </c>
       <c r="H56">
-        <v>0.88664600000000005</v>
+        <v>0.96069800000000005</v>
       </c>
       <c r="I56">
         <v>0.85578100000000001</v>
+      </c>
+      <c r="J56">
+        <v>0.86727699999999996</v>
       </c>
       <c r="K56">
         <v>5.8</v>
@@ -29911,10 +31021,13 @@
         <v>0.93629600000000002</v>
       </c>
       <c r="H57">
-        <v>0.93945199999999995</v>
+        <v>0.97729699999999997</v>
       </c>
       <c r="I57">
         <v>0.89985499999999996</v>
+      </c>
+      <c r="J57">
+        <v>0.90359500000000004</v>
       </c>
       <c r="K57">
         <v>8.8000000000000007</v>
@@ -29968,10 +31081,13 @@
         <v>0.96057899999999996</v>
       </c>
       <c r="H58">
-        <v>0.96025499999999997</v>
+        <v>0.98646900000000004</v>
       </c>
       <c r="I58">
         <v>0.93290300000000004</v>
+      </c>
+      <c r="J58">
+        <v>0.93537000000000003</v>
       </c>
       <c r="K58">
         <v>13.4</v>
@@ -30029,10 +31145,13 @@
         <v>0.97772499999999996</v>
       </c>
       <c r="H59">
-        <v>0.98326199999999997</v>
+        <v>0.99821800000000005</v>
       </c>
       <c r="I59">
         <v>0.95298099999999997</v>
+      </c>
+      <c r="J59">
+        <v>0.95914600000000005</v>
       </c>
       <c r="K59">
         <v>20.6</v>
@@ -30089,10 +31208,13 @@
         <v>0.97917799999999999</v>
       </c>
       <c r="H60">
-        <v>0.97815600000000003</v>
+        <v>0.99093600000000004</v>
       </c>
       <c r="I60">
         <v>0.96471899999999999</v>
+      </c>
+      <c r="J60">
+        <v>0.97260000000000002</v>
       </c>
       <c r="K60">
         <v>31.4</v>
@@ -30149,10 +31271,13 @@
         <v>0.99037699999999995</v>
       </c>
       <c r="H61">
-        <v>0.98519900000000005</v>
+        <v>0.99825799999999998</v>
       </c>
       <c r="I61">
         <v>0.976433</v>
+      </c>
+      <c r="J61">
+        <v>0.98486399999999996</v>
       </c>
       <c r="K61">
         <v>47.8</v>
@@ -30208,8 +31333,14 @@
       <c r="G62">
         <v>0.99010799999999999</v>
       </c>
+      <c r="H62">
+        <v>0.99604999999999999</v>
+      </c>
       <c r="I62">
         <v>0.98924100000000004</v>
+      </c>
+      <c r="J62">
+        <v>0.98794499999999996</v>
       </c>
       <c r="K62">
         <v>72.8</v>
@@ -30267,6 +31398,9 @@
       </c>
       <c r="I63">
         <v>0.98633499999999996</v>
+      </c>
+      <c r="J63">
+        <v>0.99578299999999997</v>
       </c>
       <c r="K63">
         <v>111.2</v>
@@ -30780,4 +31914,1142 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8716B578-6BA4-4EE9-B355-5C2FEE4B6619}">
+  <dimension ref="A3:AV21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="54" workbookViewId="0">
+      <selection activeCell="AP5" sqref="AP5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="1:48" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU3" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5.681818181818182E-3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>7.2350399999999995E-2</v>
+      </c>
+      <c r="G5">
+        <v>5.681818181818182E-3</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.4001599999999999E-2</v>
+      </c>
+      <c r="M5">
+        <v>5.681818181818182E-3</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>2.20872E-3</v>
+      </c>
+      <c r="S5">
+        <v>3.4090909090909088E-2</v>
+      </c>
+      <c r="T5">
+        <v>6</v>
+      </c>
+      <c r="U5">
+        <v>5.97942E-3</v>
+      </c>
+      <c r="Y5">
+        <v>0.10227272727272728</v>
+      </c>
+      <c r="Z5">
+        <v>18</v>
+      </c>
+      <c r="AA5">
+        <v>5.7124300000000001E-3</v>
+      </c>
+      <c r="AC5">
+        <v>0.16477272727272727</v>
+      </c>
+      <c r="AD5">
+        <v>29</v>
+      </c>
+      <c r="AE5">
+        <v>1.34761E-2</v>
+      </c>
+      <c r="AG5">
+        <v>0.16477272727272727</v>
+      </c>
+      <c r="AH5">
+        <v>29</v>
+      </c>
+      <c r="AI5">
+        <v>6.2599999999999999E-3</v>
+      </c>
+      <c r="AK5">
+        <v>0.25</v>
+      </c>
+      <c r="AL5">
+        <v>44</v>
+      </c>
+      <c r="AM5">
+        <v>1.5179099999999999E-2</v>
+      </c>
+      <c r="AT5">
+        <v>0.38636363636363635</v>
+      </c>
+      <c r="AU5">
+        <v>68</v>
+      </c>
+      <c r="AV5">
+        <v>2.32803E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5.681818181818182E-3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>7.1736800000000003E-2</v>
+      </c>
+      <c r="G6">
+        <v>5.681818181818182E-3</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.40433E-2</v>
+      </c>
+      <c r="M6">
+        <v>5.681818181818182E-3</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>2.3601999999999998E-3</v>
+      </c>
+      <c r="S6">
+        <v>5.113636363636364E-2</v>
+      </c>
+      <c r="T6">
+        <v>9</v>
+      </c>
+      <c r="U6">
+        <v>1.53458E-2</v>
+      </c>
+      <c r="Y6">
+        <v>0.15909090909090909</v>
+      </c>
+      <c r="Z6">
+        <v>28</v>
+      </c>
+      <c r="AA6">
+        <v>2.8833899999999999E-2</v>
+      </c>
+      <c r="AC6">
+        <v>0.25</v>
+      </c>
+      <c r="AD6">
+        <v>44</v>
+      </c>
+      <c r="AE6">
+        <v>5.15696E-2</v>
+      </c>
+      <c r="AG6">
+        <v>0.25</v>
+      </c>
+      <c r="AH6">
+        <v>44</v>
+      </c>
+      <c r="AI6">
+        <v>3.4810300000000002E-2</v>
+      </c>
+      <c r="AK6">
+        <v>0.38068181818181818</v>
+      </c>
+      <c r="AL6">
+        <v>67</v>
+      </c>
+      <c r="AM6">
+        <v>7.8116000000000005E-2</v>
+      </c>
+      <c r="AT6">
+        <v>0.58522727272727271</v>
+      </c>
+      <c r="AU6">
+        <v>103</v>
+      </c>
+      <c r="AV6">
+        <v>0.120217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1.1363636363636364E-2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0.130024</v>
+      </c>
+      <c r="G7">
+        <v>1.1363636363636364E-2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>3.5740800000000003E-2</v>
+      </c>
+      <c r="M7">
+        <v>1.1363636363636364E-2</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>6.7234299999999999E-3</v>
+      </c>
+      <c r="S7">
+        <v>7.3863636363636367E-2</v>
+      </c>
+      <c r="T7">
+        <v>13</v>
+      </c>
+      <c r="U7">
+        <v>2.9916700000000001E-2</v>
+      </c>
+      <c r="Y7">
+        <v>0.25</v>
+      </c>
+      <c r="Z7">
+        <v>44</v>
+      </c>
+      <c r="AA7">
+        <v>7.70232E-2</v>
+      </c>
+      <c r="AC7">
+        <v>0.38068181818181818</v>
+      </c>
+      <c r="AD7">
+        <v>67</v>
+      </c>
+      <c r="AE7">
+        <v>0.13627400000000001</v>
+      </c>
+      <c r="AG7">
+        <v>0.38068181818181818</v>
+      </c>
+      <c r="AH7">
+        <v>67</v>
+      </c>
+      <c r="AI7">
+        <v>9.6093499999999998E-2</v>
+      </c>
+      <c r="AK7">
+        <v>0.57954545454545459</v>
+      </c>
+      <c r="AL7">
+        <v>102</v>
+      </c>
+      <c r="AM7">
+        <v>0.24182899999999999</v>
+      </c>
+      <c r="AT7">
+        <v>0.89204545454545459</v>
+      </c>
+      <c r="AU7">
+        <v>157</v>
+      </c>
+      <c r="AV7">
+        <v>0.33704099999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1.7045454545454544E-2</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0.17410800000000001</v>
+      </c>
+      <c r="G8">
+        <v>1.7045454545454544E-2</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>6.0992499999999998E-2</v>
+      </c>
+      <c r="M8">
+        <v>1.7045454545454544E-2</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>1.30708E-2</v>
+      </c>
+      <c r="S8">
+        <v>0.11363636363636363</v>
+      </c>
+      <c r="T8">
+        <v>20</v>
+      </c>
+      <c r="U8">
+        <v>6.8227099999999999E-2</v>
+      </c>
+      <c r="Y8">
+        <v>0.38068181818181818</v>
+      </c>
+      <c r="Z8">
+        <v>67</v>
+      </c>
+      <c r="AA8">
+        <v>0.198655</v>
+      </c>
+      <c r="AC8">
+        <v>0.58522727272727271</v>
+      </c>
+      <c r="AD8">
+        <v>103</v>
+      </c>
+      <c r="AE8">
+        <v>0.40614600000000001</v>
+      </c>
+      <c r="AG8">
+        <v>0.57954545454545459</v>
+      </c>
+      <c r="AH8">
+        <v>102</v>
+      </c>
+      <c r="AI8">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="AK8">
+        <v>0.88636363636363635</v>
+      </c>
+      <c r="AL8">
+        <v>156</v>
+      </c>
+      <c r="AM8">
+        <v>0.48080600000000001</v>
+      </c>
+      <c r="AT8">
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="AU8">
+        <v>240</v>
+      </c>
+      <c r="AV8">
+        <v>0.58642799999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2.8409090909090908E-2</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>0.24090400000000001</v>
+      </c>
+      <c r="G9">
+        <v>2.8409090909090908E-2</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>0.123625</v>
+      </c>
+      <c r="M9">
+        <v>2.8409090909090908E-2</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>2.9171699999999998E-2</v>
+      </c>
+      <c r="S9">
+        <v>0.17613636363636365</v>
+      </c>
+      <c r="T9">
+        <v>31</v>
+      </c>
+      <c r="U9">
+        <v>0.170906</v>
+      </c>
+      <c r="Y9">
+        <v>0.57954545454545459</v>
+      </c>
+      <c r="Z9">
+        <v>102</v>
+      </c>
+      <c r="AA9">
+        <v>0.41742600000000002</v>
+      </c>
+      <c r="AC9">
+        <v>0.89204545454545459</v>
+      </c>
+      <c r="AD9">
+        <v>157</v>
+      </c>
+      <c r="AE9">
+        <v>0.54059400000000002</v>
+      </c>
+      <c r="AG9">
+        <v>0.88636363636363635</v>
+      </c>
+      <c r="AH9">
+        <v>156</v>
+      </c>
+      <c r="AI9">
+        <v>0.51451400000000003</v>
+      </c>
+      <c r="AK9">
+        <v>1.3522727272727273</v>
+      </c>
+      <c r="AL9">
+        <v>238</v>
+      </c>
+      <c r="AM9">
+        <v>0.62597000000000003</v>
+      </c>
+      <c r="AT9">
+        <v>2.0738636363636362</v>
+      </c>
+      <c r="AU9">
+        <v>365</v>
+      </c>
+      <c r="AV9">
+        <v>0.70137300000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.31364300000000001</v>
+      </c>
+      <c r="G10">
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>0.19600600000000001</v>
+      </c>
+      <c r="M10">
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>6.4353900000000006E-2</v>
+      </c>
+      <c r="S10">
+        <v>0.26704545454545453</v>
+      </c>
+      <c r="T10">
+        <v>47</v>
+      </c>
+      <c r="U10">
+        <v>0.320272</v>
+      </c>
+      <c r="Y10">
+        <v>0.88636363636363635</v>
+      </c>
+      <c r="Z10">
+        <v>156</v>
+      </c>
+      <c r="AA10">
+        <v>0.57016999999999995</v>
+      </c>
+      <c r="AC10">
+        <v>1.3579545454545454</v>
+      </c>
+      <c r="AD10">
+        <v>239</v>
+      </c>
+      <c r="AE10">
+        <v>0.66275300000000004</v>
+      </c>
+      <c r="AG10">
+        <v>1.3522727272727273</v>
+      </c>
+      <c r="AH10">
+        <v>238</v>
+      </c>
+      <c r="AI10">
+        <v>0.63897999999999999</v>
+      </c>
+      <c r="AK10">
+        <v>2.0625</v>
+      </c>
+      <c r="AL10">
+        <v>363</v>
+      </c>
+      <c r="AM10">
+        <v>0.72856600000000005</v>
+      </c>
+      <c r="AT10">
+        <v>3.1647727272727271</v>
+      </c>
+      <c r="AU10">
+        <v>557</v>
+      </c>
+      <c r="AV10">
+        <v>0.78654100000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>6.8181818181818177E-2</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>0.391899</v>
+      </c>
+      <c r="G11">
+        <v>6.8181818181818177E-2</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11">
+        <v>0.26098700000000002</v>
+      </c>
+      <c r="M11">
+        <v>6.8181818181818177E-2</v>
+      </c>
+      <c r="N11">
+        <v>12</v>
+      </c>
+      <c r="O11">
+        <v>0.12840799999999999</v>
+      </c>
+      <c r="S11">
+        <v>0.40909090909090912</v>
+      </c>
+      <c r="T11">
+        <v>72</v>
+      </c>
+      <c r="U11">
+        <v>0.44457799999999997</v>
+      </c>
+      <c r="Y11">
+        <v>1.3522727272727273</v>
+      </c>
+      <c r="Z11">
+        <v>238</v>
+      </c>
+      <c r="AA11">
+        <v>0.67355200000000004</v>
+      </c>
+      <c r="AC11">
+        <v>2.0681818181818183</v>
+      </c>
+      <c r="AD11">
+        <v>364</v>
+      </c>
+      <c r="AE11">
+        <v>0.74927200000000005</v>
+      </c>
+      <c r="AG11">
+        <v>2.0625</v>
+      </c>
+      <c r="AH11">
+        <v>363</v>
+      </c>
+      <c r="AI11">
+        <v>0.73656200000000005</v>
+      </c>
+      <c r="AK11">
+        <v>3.1477272727272729</v>
+      </c>
+      <c r="AL11">
+        <v>554</v>
+      </c>
+      <c r="AM11">
+        <v>0.806674</v>
+      </c>
+      <c r="AT11">
+        <v>4.8238636363636367</v>
+      </c>
+      <c r="AU11">
+        <v>849</v>
+      </c>
+      <c r="AV11">
+        <v>0.85261299999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>0.10795454545454546</v>
+      </c>
+      <c r="B12">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>0.489842</v>
+      </c>
+      <c r="G12">
+        <v>0.10795454545454546</v>
+      </c>
+      <c r="H12">
+        <v>19</v>
+      </c>
+      <c r="I12">
+        <v>0.33902900000000002</v>
+      </c>
+      <c r="M12">
+        <v>0.10795454545454546</v>
+      </c>
+      <c r="N12">
+        <v>19</v>
+      </c>
+      <c r="O12">
+        <v>0.23386899999999999</v>
+      </c>
+      <c r="S12">
+        <v>0.61931818181818177</v>
+      </c>
+      <c r="T12">
+        <v>109</v>
+      </c>
+      <c r="U12">
+        <v>0.55410599999999999</v>
+      </c>
+      <c r="Y12">
+        <v>2.0681818181818183</v>
+      </c>
+      <c r="Z12">
+        <v>364</v>
+      </c>
+      <c r="AA12">
+        <v>0.75958000000000003</v>
+      </c>
+      <c r="AC12">
+        <v>3.1534090909090908</v>
+      </c>
+      <c r="AD12">
+        <v>555</v>
+      </c>
+      <c r="AE12">
+        <v>0.82089299999999998</v>
+      </c>
+      <c r="AG12">
+        <v>3.1477272727272729</v>
+      </c>
+      <c r="AH12">
+        <v>554</v>
+      </c>
+      <c r="AI12">
+        <v>0.81206699999999998</v>
+      </c>
+      <c r="AK12">
+        <v>4.8011363636363633</v>
+      </c>
+      <c r="AL12">
+        <v>845</v>
+      </c>
+      <c r="AM12">
+        <v>0.85926599999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>0.16477272727272727</v>
+      </c>
+      <c r="B13">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>0.57566899999999999</v>
+      </c>
+      <c r="G13">
+        <v>0.16477272727272727</v>
+      </c>
+      <c r="H13">
+        <v>29</v>
+      </c>
+      <c r="I13">
+        <v>0.429892</v>
+      </c>
+      <c r="M13">
+        <v>0.16477272727272727</v>
+      </c>
+      <c r="N13">
+        <v>29</v>
+      </c>
+      <c r="O13">
+        <v>0.323432</v>
+      </c>
+      <c r="S13">
+        <v>0.9375</v>
+      </c>
+      <c r="T13">
+        <v>165</v>
+      </c>
+      <c r="U13">
+        <v>0.65079200000000004</v>
+      </c>
+      <c r="Y13">
+        <v>3.1534090909090908</v>
+      </c>
+      <c r="Z13">
+        <v>555</v>
+      </c>
+      <c r="AA13">
+        <v>0.82726500000000003</v>
+      </c>
+      <c r="AC13">
+        <v>4.8125</v>
+      </c>
+      <c r="AD13">
+        <v>847</v>
+      </c>
+      <c r="AE13">
+        <v>0.87234699999999998</v>
+      </c>
+      <c r="AG13">
+        <v>4.8011363636363633</v>
+      </c>
+      <c r="AH13">
+        <v>845</v>
+      </c>
+      <c r="AI13">
+        <v>0.86792000000000002</v>
+      </c>
+      <c r="AK13">
+        <v>7.3238636363636367</v>
+      </c>
+      <c r="AL13">
+        <v>1289</v>
+      </c>
+      <c r="AM13">
+        <v>0.90637699999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>0.25</v>
+      </c>
+      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>0.66077600000000003</v>
+      </c>
+      <c r="G14">
+        <v>0.25</v>
+      </c>
+      <c r="H14">
+        <v>44</v>
+      </c>
+      <c r="I14">
+        <v>0.52124099999999995</v>
+      </c>
+      <c r="M14">
+        <v>0.25</v>
+      </c>
+      <c r="N14">
+        <v>44</v>
+      </c>
+      <c r="O14">
+        <v>0.419076</v>
+      </c>
+      <c r="S14">
+        <v>1.4147727272727273</v>
+      </c>
+      <c r="T14">
+        <v>249</v>
+      </c>
+      <c r="U14">
+        <v>0.73328099999999996</v>
+      </c>
+      <c r="Y14">
+        <v>4.8068181818181817</v>
+      </c>
+      <c r="Z14">
+        <v>846</v>
+      </c>
+      <c r="AA14">
+        <v>0.87621099999999996</v>
+      </c>
+      <c r="AC14">
+        <v>7.3352272727272725</v>
+      </c>
+      <c r="AD14">
+        <v>1291</v>
+      </c>
+      <c r="AE14">
+        <v>0.91328200000000004</v>
+      </c>
+      <c r="AG14">
+        <v>7.3238636363636367</v>
+      </c>
+      <c r="AH14">
+        <v>1289</v>
+      </c>
+      <c r="AI14">
+        <v>0.90939499999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>0.38068181818181818</v>
+      </c>
+      <c r="B15">
+        <v>67</v>
+      </c>
+      <c r="C15">
+        <v>0.73351900000000003</v>
+      </c>
+      <c r="G15">
+        <v>0.38068181818181818</v>
+      </c>
+      <c r="H15">
+        <v>67</v>
+      </c>
+      <c r="I15">
+        <v>0.612645</v>
+      </c>
+      <c r="M15">
+        <v>0.38068181818181818</v>
+      </c>
+      <c r="N15">
+        <v>67</v>
+      </c>
+      <c r="O15">
+        <v>0.52354100000000003</v>
+      </c>
+      <c r="S15">
+        <v>2.1420454545454546</v>
+      </c>
+      <c r="T15">
+        <v>377</v>
+      </c>
+      <c r="U15">
+        <v>0.80073499999999997</v>
+      </c>
+      <c r="Y15">
+        <v>7.3295454545454541</v>
+      </c>
+      <c r="Z15">
+        <v>1290</v>
+      </c>
+      <c r="AA15">
+        <v>0.91469299999999998</v>
+      </c>
+      <c r="AC15">
+        <v>11.181818181818182</v>
+      </c>
+      <c r="AD15">
+        <v>1968</v>
+      </c>
+      <c r="AE15">
+        <v>0.94073600000000002</v>
+      </c>
+      <c r="AG15">
+        <v>11.176136363636363</v>
+      </c>
+      <c r="AH15">
+        <v>1967</v>
+      </c>
+      <c r="AI15">
+        <v>0.937975</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>0.58522727272727271</v>
+      </c>
+      <c r="B16">
+        <v>103</v>
+      </c>
+      <c r="C16">
+        <v>0.790273</v>
+      </c>
+      <c r="G16">
+        <v>0.58522727272727271</v>
+      </c>
+      <c r="H16">
+        <v>103</v>
+      </c>
+      <c r="I16">
+        <v>0.69706400000000002</v>
+      </c>
+      <c r="M16">
+        <v>0.58522727272727271</v>
+      </c>
+      <c r="N16">
+        <v>103</v>
+      </c>
+      <c r="O16">
+        <v>0.61071600000000004</v>
+      </c>
+      <c r="S16">
+        <v>3.2443181818181817</v>
+      </c>
+      <c r="T16">
+        <v>571</v>
+      </c>
+      <c r="U16">
+        <v>0.85889000000000004</v>
+      </c>
+      <c r="Y16">
+        <v>11.176136363636363</v>
+      </c>
+      <c r="Z16">
+        <v>1967</v>
+      </c>
+      <c r="AA16">
+        <v>0.94108199999999997</v>
+      </c>
+      <c r="AC16">
+        <v>17.045454545454547</v>
+      </c>
+      <c r="AD16">
+        <v>3000</v>
+      </c>
+      <c r="AE16">
+        <v>0.95814999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>0.89204545454545459</v>
+      </c>
+      <c r="B17">
+        <v>157</v>
+      </c>
+      <c r="C17">
+        <v>0.85194599999999998</v>
+      </c>
+      <c r="G17">
+        <v>0.89204545454545459</v>
+      </c>
+      <c r="H17">
+        <v>157</v>
+      </c>
+      <c r="I17">
+        <v>0.76631899999999997</v>
+      </c>
+      <c r="M17">
+        <v>0.89204545454545459</v>
+      </c>
+      <c r="N17">
+        <v>157</v>
+      </c>
+      <c r="O17">
+        <v>0.70544099999999998</v>
+      </c>
+      <c r="S17">
+        <v>4.9147727272727275</v>
+      </c>
+      <c r="T17">
+        <v>865</v>
+      </c>
+      <c r="U17">
+        <v>0.90180700000000003</v>
+      </c>
+      <c r="Y17">
+        <v>17.039772727272727</v>
+      </c>
+      <c r="Z17">
+        <v>2999</v>
+      </c>
+      <c r="AA17">
+        <v>0.960955</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1.3579545454545454</v>
+      </c>
+      <c r="B18">
+        <v>239</v>
+      </c>
+      <c r="C18">
+        <v>0.89289700000000005</v>
+      </c>
+      <c r="G18">
+        <v>1.3579545454545454</v>
+      </c>
+      <c r="H18">
+        <v>239</v>
+      </c>
+      <c r="I18">
+        <v>0.83141799999999999</v>
+      </c>
+      <c r="M18">
+        <v>1.3579545454545454</v>
+      </c>
+      <c r="N18">
+        <v>239</v>
+      </c>
+      <c r="O18">
+        <v>0.772783</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2.0681818181818183</v>
+      </c>
+      <c r="B19">
+        <v>364</v>
+      </c>
+      <c r="C19">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="G19">
+        <v>2.0681818181818183</v>
+      </c>
+      <c r="H19">
+        <v>364</v>
+      </c>
+      <c r="I19">
+        <v>0.87112000000000001</v>
+      </c>
+      <c r="M19">
+        <v>2.0681818181818183</v>
+      </c>
+      <c r="N19">
+        <v>364</v>
+      </c>
+      <c r="O19">
+        <v>0.836955</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>3.1590909090909092</v>
+      </c>
+      <c r="B20">
+        <v>556</v>
+      </c>
+      <c r="C20">
+        <v>0.94096400000000002</v>
+      </c>
+      <c r="G20">
+        <v>3.1590909090909092</v>
+      </c>
+      <c r="H20">
+        <v>556</v>
+      </c>
+      <c r="I20">
+        <v>0.911968</v>
+      </c>
+      <c r="M20">
+        <v>3.1590909090909092</v>
+      </c>
+      <c r="N20">
+        <v>556</v>
+      </c>
+      <c r="O20">
+        <v>0.87834299999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>4.8125</v>
+      </c>
+      <c r="B21">
+        <v>847</v>
+      </c>
+      <c r="C21">
+        <v>0.96406599999999998</v>
+      </c>
+      <c r="G21">
+        <v>4.8125</v>
+      </c>
+      <c r="H21">
+        <v>847</v>
+      </c>
+      <c r="I21">
+        <v>0.93977999999999995</v>
+      </c>
+      <c r="M21">
+        <v>4.8125</v>
+      </c>
+      <c r="N21">
+        <v>847</v>
+      </c>
+      <c r="O21">
+        <v>0.91637400000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>